--- a/preview.xlsx
+++ b/preview.xlsx
@@ -4925,11 +4925,31 @@
       <c r="E172" t="n">
         <v>1</v>
       </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>屢陷險境者</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>屢陷險境</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>反覆多次，久而致凶</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>北方低窪水域</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>隱蔽的陷阱或深井</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4951,11 +4971,31 @@
       <c r="E173" t="n">
         <v>2</v>
       </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>行事謹慎遇險求小利</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>涉險行動，僅得小利</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>短期內有小收穫</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>北方水邊低窪險處</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>微小之物、少量財物</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4977,11 +5017,31 @@
       <c r="E174" t="n">
         <v>3</v>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>易陷險境、輕率冒進者</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>陷入險境宜止步</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>暫緩行動，待數月無險</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>北方水域、深坑低窪</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>暗藏陷阱之物</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5003,11 +5063,31 @@
       <c r="E175" t="n">
         <v>4</v>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>節儉謙遜之人</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>小宴節制，謹慎接受</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>短暫等待，漸見成效</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>居家靠窗的廚倉</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>罐裝酒或糧食</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5029,11 +5109,31 @@
       <c r="E176" t="n">
         <v>5</v>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>謹慎中庸穩健之人</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>險情化解恢復平靜</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>不久即可恢復平穩</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>北方水邊低洼處</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>適量的水</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5055,11 +5155,31 @@
       <c r="E177" t="n">
         <v>6</v>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>被束縛、長期受困者</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>被束縛受阻，久不得成事</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>至少三年，方見轉機</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>荊棘叢中荒僻之地</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>被縛藏匿的寶物</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">

--- a/preview.xlsx
+++ b/preview.xlsx
@@ -4927,27 +4927,27 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>屢陷險境者</t>
+          <t>屢犯舊錯之人,負債纏身者,井下礦工,冒險成癖者</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>屢陷險境</t>
+          <t>暗井,被困之人,重複失足,積水之處</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>反覆多次，久而致凶</t>
+          <t>立刻,數天,深夜,冬季</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>北方低窪水域</t>
+          <t>北方, 低洼處, 地下洞穴, 溝渠旁</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>隱蔽的陷阱或深井</t>
+          <t>深井,坑窞,暗渠,陷阱 低窪地,地下室,井口,涵洞 汙水,暗流,淤泥,塌方 繩索,長梯,木桶,井轆轤</t>
         </is>
       </c>
     </row>
@@ -4973,27 +4973,27 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>行事謹慎遇險求小利</t>
+          <t>謹慎之人,小商販,漁夫,斥候</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>涉險行動，僅得小利</t>
+          <t>潭邊狹道,小利入袋,謹慎之人遞來繩索,行程延宕反覆</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>短期內有小收穫</t>
+          <t>數日,數周,冬季,夜半</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>北方水邊低窪險處</t>
+          <t>北方,低洼之地,水流之處,隱蔽之處</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>微小之物、少量財物</t>
+          <t>繩索,水囊,雨具,小錢袋</t>
         </is>
       </c>
     </row>
@@ -5019,27 +5019,27 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>易陷險境、輕率冒進者</t>
+          <t>陷於險境之人,冒進不返之人,疲憊而困頓之人,不宜任用之人</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>陷入險境宜止步</t>
+          <t>重重險阻,深坑,落井,止步</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>暫緩行動，待數月無險</t>
+          <t>數周,數月,冬季,夜間</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>北方水域、深坑低窪</t>
+          <t>北方,水流之處,低洼之地,坑穴</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>暗藏陷阱之物</t>
+          <t>陷阱,深井,洞穴,暗溝</t>
         </is>
       </c>
     </row>
@@ -5065,27 +5065,27 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>節儉謙遜之人</t>
+          <t>節儉守禮的家長,樸素誠篤的祭祀者,恪守儀法的小吏,謹慎內向之人</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>小宴節制，謹慎接受</t>
+          <t>簡樸宴席,薄禮互贈,私下締約,平安收場</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>短暫等待，漸見成效</t>
+          <t>數天,翌日,清晨,上旬</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>居家靠窗的廚倉</t>
+          <t>窗邊, 室內, 西方, 東北</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>罐裝酒或糧食</t>
+          <t>酒樽,簋,陶缶,窗牖</t>
         </is>
       </c>
     </row>
@@ -5111,27 +5111,27 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>謹慎中庸穩健之人</t>
+          <t>謙抑的領導者,謹慎之人,風險管理者,安分守成者</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>險情化解恢復平靜</t>
+          <t>危機止住不再惡化, 水位持平回落, 坑洼被填平整地, 無災無咎的收場</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>不久即可恢復平穩</t>
+          <t>數周,冬季,夜半,中旬</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>北方水邊低洼處</t>
+          <t>北方, 水流之處, 淺灘渡口, 平整之地</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>適量的水</t>
+          <t>水井, 溝渠, 水槽, 河堤</t>
         </is>
       </c>
     </row>
@@ -5157,27 +5157,27 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>被束縛、長期受困者</t>
+          <t>負債纏身者,被上司牽制的下屬,過度謹慎的管理人,深陷關係糾葛者</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>被束縛受阻，久不得成事</t>
+          <t>拘禁,拖延,三年,荊棘叢</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>至少三年，方見轉機</t>
+          <t>三年,數年,漫長等待,多年無果</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>荊棘叢中荒僻之地</t>
+          <t>叢棘密布之處,隱蔽的灌木叢,東南方,荒地邊界</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>被縛藏匿的寶物</t>
+          <t>契約文書,抵押品,失竊貨物,獵物</t>
         </is>
       </c>
     </row>

--- a/preview.xlsx
+++ b/preview.xlsx
@@ -505,11 +505,31 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>謹慎之人,潛伏者,低調智慧者,等待時機者</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>隱藏之處,潛伏階段,等待時機,謹慎勿動</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>深淵潛伏期,數月等待,時機未成熟,隱藏之階段</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>隱藏之處,地下低谷,潛伏之地,靜止水域</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>隱藏之處,潛伏龍,等待時機,深淵潛藏</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -531,11 +551,31 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>高階領導人,有影響力之人,潛力人才,值得結交的貴人</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>龍影顯現,田野貴人,高階導師,機會初現</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>春天,數月,初顯之時,轉折點</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>田野,廣闊平原,初現之地,貴人相會處</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>年長者,高階管理人,貴人出現,機會顯現</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -557,11 +597,31 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>勤勉之人,警惕君子,謹慎長者,堅毅不懈者</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>勤勉君子,警惕之心,潛在危險,平安無咎</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>一整天,夜晚警惕,持續數日,警惕期</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>高處,警戒之地,勤勉之域,無咎之境</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>謹慎之人,勤奮努力,警惕之心,無咎護佑</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -583,11 +643,31 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>躍淵冒險者,果敢決斷人,無畏探險家,深淵躍進者</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>躍進深淵,危機轉機,隱藏幸運,無災冒險</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>深淵,隱藏水潭,危險水域,躍進之處</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>躍進之魚,深淵邊緣,無咎躍動,冒險之物</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -609,11 +689,31 @@
       <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>高位領導者,貴人,權威人物,君王</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>高階領導,事業高峰,遇貴人,成功時刻</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>時機成熟,盛夏高峰,即刻行動,數月巔峰</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>高空之處,權力中心,領導殿堂,大人之居</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>飛翔之龍,高位權威,領導者,見賢大人</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,11 +735,31 @@
       <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>高位之人,驕傲野心者,悔恨領導,過度自負者</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>高處墜落,驕傲悔恨,過度飛揚,危機轉折</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>盛極之時,轉衰之際,短暫高峰,悔恨即臨</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>高處,頂峰,孤立之境,危險高峰</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>極高之龍,過度驕傲,悔恨之境,衰退之兆</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -661,11 +781,31 @@
       <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>謙遜之人,無私領導者,和諧群體成員,集體智慧參與者</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>無首領的群體,和諧自發,集體吉祥,無爭合作</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>時機成熟,數月後,週期結束,秋冬轉折</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>群龍聚集之處,無首平等之境,和諧無爭之地,吉祥民主之域</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>無首之龍,平等群體,領導真空,吉祥集會</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -687,11 +827,31 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>謹慎之人,警惕者,經驗老道者,預見危險者</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>霜凍之始,堅冰之臨,危險預兆,小禍成大災</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>霜降之初,冰凍將至,數日警告,秋末轉冬</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>霜覆之地,寒冰邊緣,危險路徑,預警霜野</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>霜,堅冰,寒冷預兆,隱藏危險</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -713,11 +873,31 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>正直之人,方正君子,寬大領袖,天賦賢者</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>正直之人,方正原則,宏大志向,順利無礙</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>即時,無需等待,短暫,自然時機</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>廣闊平原,正義廣場,開放殿堂,自然庭院</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>直立的柱子 方正的磚塊 宏大的建築 天然的利器</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -739,11 +919,31 @@
       <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>內斂美質者,守正忠誠人,謙遜從事者,終局安穩者</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>公務邀請,守正之道,小成圓滿,隱藏美質</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>漸進之時,數月堅持,善終之期,耐久過程</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>隱藏之處,宮廷公務所,守正居所,終結之地</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>隱藏之寶,謙遜之器,王事之具,善終之物</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -765,11 +965,31 @@
       <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>謹慎之人,保守者,低調之人,平凡之人</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>封閉囊袋,保守隱藏,平凡無奇,無災無譽</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>封閉等待期,靜止數周,不明確時長,隱藏階段</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>隱藏之處,封閉空間,保守之地,無聲角落</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>綁緊之囊,封閉袋子,保守容器,隱藏財物</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -791,11 +1011,31 @@
       <c r="E13" t="n">
         <v>5</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>謙遜之人,中正之人,柔順者,得道之人</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>中正之道,柔順行事,大吉祥,榮耀時刻</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>平坦之地,肥沃田野,溫和平原,黃色大地</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>黃色下裳,柔順布料,豐滿象徵,吉祥服飾</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -817,11 +1057,31 @@
       <c r="E14" t="n">
         <v>6</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>野心勃勃的領袖,權力爭奪者,好戰之人,衝突製造者</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>激烈衝突,君子小人爭鬥,傷害流血,混亂局面</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>激烈衝突期,轉折之際,危險階段,化解需時</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>荒野,戰場,開放平原,血染之地</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>激烈衝突,權力爭鬥,公開戰場,混亂傷害</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -843,11 +1103,31 @@
       <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>謹慎之人,守正者,終結者,持久長者</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>重大結束,長久守正,永恒正道,最終成就</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>長久守正, 永遠堅持, 最終終結, 漫長過程</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>隱藏之處,穩定之地,終結之境,廣闊平原</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>年長守正者,偉大終結,柔順永恆,持久正道</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -869,11 +1149,31 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>猶豫之人,守正者,領導者,穩重之人</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>徘徊之人,守正之居,建侯領袖,盤桓之途</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>數周,徘徊期,中期等待,建侯時</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>彎曲小徑,穩固居所,領地基地,徘徊之地</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>彎曲路徑,穩定居所,建侯結構,徘徊之境</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -895,11 +1195,31 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>謹慎之人,猶豫求婚者,守貞女子,等待時機者</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>求婚延遲,馬匹徘徊,堅貞女子,年長孕育</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>數年等待,成年之時,延遲孕育,時機成熟</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>徘徊之地,停滯之境,艱難起步之所,守貞之室</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>艱難起步,徘徊求婚,婚姻延遲,數年生育</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -921,11 +1241,31 @@
       <c r="E18" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>盲目追逐者,缺乏指引之人,冒險無謀者,後悔之徒</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>追獵無導,森林迷途,及時止步,冒進悔恨</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>數日迷失,林中等待,險阻延期,時機未至</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>茂密林中,隱藏叢林,無導險地,迷失幽谷</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>追逐之鹿,無導之林,隱藏險境,悔吝之途</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -947,11 +1287,31 @@
       <c r="E19" t="n">
         <v>4</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>追求者,散漫行動者,吉祥聯盟人,樂觀求婚者</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>馬匹徘徊,婚姻聯盟,順利前進,吉祥結合</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>數日內,馬蹄有序,時機成熟,短期順利</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>馬群聚集之處,求婚廳堂,吉祥旅途,社交集會地</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>馬匹,散開群馬,求婚信物,姻緣紐帶</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -973,11 +1333,31 @@
       <c r="E20" t="n">
         <v>5</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>謹慎之人,小規模領導者,堅持正道者,初難保守派</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>小挑戰順利,大冒險凶險,漸進積累,過度擴張</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>數天,初春,短暫等待,起始階段</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>滋潤之處,小型庇護所,屯難邊緣,膏油隱藏地</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>膏脂, 小型滋養, 大型風險, 潤滑之物</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -999,11 +1379,31 @@
       <c r="E21" t="n">
         <v>6</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>悲傷的戰士,泣血的受害者,班駁的騎手,痛苦的堅韌者</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>停滯徘徊,悲傷泣血,阻礙重重,傷痛分離</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>數月,延遲期,混亂季,漫長等待</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>停滯之地,泣血之境,徘徊之所,危難區域</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>停滯馬群,血淚傷口,泣血集會,悲傷停滯</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1025,11 +1425,31 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>高階領導人,嚴厲執法者,開蒙導師,果斷決策者</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>懲罰之人,枷鎖解除,覺醒時刻,過去遺憾</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>數日,短期內,過去之時,延遲期</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>拘束之地,刑罰之所,蒙昧之境,解放之處</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>嚴格師長,枷鎖,解放,險阻</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1051,11 +1471,31 @@
       <c r="E23" t="n">
         <v>2</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>包容者,導師,家庭領袖,傳承長者</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>包容蒙昧,吉祥婚姻,兒子掌家,家庭和睦</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>數月,成長期,春季,家業傳承時</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>包容之谷,家庭居所,泉水之畔,啟蒙隱處</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>包容容器,婚姻紐帶,繼承財產,家庭支柱</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1077,11 +1517,31 @@
       <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>有錢丈夫,危險女人,誘惑之人,不利伴侶</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>有錢男子,危險誘惑,自身損失,無利結局</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>堅硬之處,隱藏危險地,婚姻忌諱境,無利之域</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>貪婪女子,見利忘義者,無忠誠伴侶,金錢誘惑</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1103,11 +1563,31 @@
       <c r="E25" t="n">
         <v>4</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>困惑之人,蒙昧者,困境掙扎者,愚昧無知者</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>困境,迷茫,過失,悔恨</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>數日, 短期困境, 蒙昧之初, 轉折前夕</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>困境之所,蒙昧之境,混沌之地,幽暗迷宮</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>困窘之境,蒙昧之人,吝惜之心,貧乏困境</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1129,11 +1609,31 @@
       <c r="E26" t="n">
         <v>5</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>純真之人,蒙昧學徒,求知幼童,吉祥純樸者</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>純真之人,啟蒙時刻,求教之機,吉祥轉折</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>初期階段,短暫蒙昧,童年時期,數月成長</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>蒙學堂,山泉邊,稚子園,啟蒙地</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>幼童,初學者,純真之人,啟蒙之象</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1155,11 +1655,31 @@
       <c r="E27" t="n">
         <v>6</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>高階領導人,防禦守護者,教化導師,謹慎防範者</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>蒙昧教化,防禦入侵,擊退盜寇,啟蒙指導</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>邊境要塞,防禦堡壘,隱秘山谷,保護之所</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>防禦屏障,守護者,懲治之器,隱藏寇賊</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1181,11 +1701,31 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>耐心等待者,恆久堅持之人,郊外謹慎者,無咎守候者</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>郊外等待,持久耐心,有利恆久,無災禍</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>郊外等待,數月,恆久過程,遠期無咎</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>郊外,鄉野邊緣,開放田野,恆久靜處</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>郊外等待之處,持久耐用之物,耐心守候之人,無險阻之路</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1207,11 +1747,31 @@
       <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>謹慎等待者,遇小爭議者,耐心堅持者,終獲吉祥者</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>沙地等待,小有爭執,最終吉祥,幸運轉折</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>短暫等待,小延遲,數日,短期</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>沙地,河畔,水邊,等待之處</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>沙地等待,小爭論事件,最終吉祥,不穩立足點</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1233,11 +1793,31 @@
       <c r="E30" t="n">
         <v>3</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>泥濘中等待者,招致盜寇之人,處境艱難者,猶豫不決者</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>泥濘困境,盜寇入侵,猶豫災禍,意外襲擊</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>泥濘期,數周延遲,雨後之時,短期寇至</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>泥濘之地,低窪陷阱,危險邊緣,易受入侵之處</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>泥濘陷阱,潛伏盜寇,危險等待,引來災禍</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1259,11 +1839,31 @@
       <c r="E31" t="n">
         <v>4</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>從困境中脫出者, 血染之謹慎人, 隱藏穴居者, 等待時機之堅韌者</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>血腥傷害,穴中逃脫,危險等待,脫離險境</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>隱藏之處,血染之地,危險穴道,脫離之洞</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>血腥之處,隱藏洞穴,脫出之途,危險出口</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1285,11 +1885,31 @@
       <c r="E32" t="n">
         <v>5</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>守正享樂者,等待時機之人,節制君子,適度社交者</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>宴會聚會,酒食享用,等待滋養,堅持吉祥</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>數日,短暫等待,日常時光,節慶時刻</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>酒食之處,宴樂廳堂,休養客棧,溫飽居室</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>酒食,豐盛宴席,等待滋養,吉祥饗宴</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1311,11 +1931,31 @@
       <c r="E33" t="n">
         <v>6</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>不速之客,三人訪客,需敬重之人,意外貴人</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>意外訪客,三人來臨,隱藏之穴,恭敬吉祥</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>隱藏之處,洞穴般空間,封閉居所,意外訪客之地</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>隱藏之穴,意外來客,三人訪客,敬重吉祥</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1337,11 +1977,31 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>不持久之人,有小爭執者,變動流轉者,終獲吉祥者</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>短暫爭執,暫時阻礙,最終轉機,好結局</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>數天,小波折,短期內,最終好轉</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>短暫居所,小紛爭之地,轉吉之境,過渡空間</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>臨時盟友,小口角,和平結局,短程任務</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1363,11 +2023,31 @@
       <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>逃亡者,邑人領袖,避禍之人,有後援者</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>法律糾紛,逃避退讓,小規模社區,平安化解</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>短期,數日,小邑時機,及時歸去</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>小邑,三百戶聚落,歸隱之地,無災之鄉</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>小村莊,逃亡者,歸隱之處,無災社區</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1389,11 +2069,31 @@
       <c r="E36" t="n">
         <v>3</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>依賴傳統之人,守正謹慎者,危機中求吉者,公事無成者</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>舊德享用,警惕危險,最終吉祥,公事無成</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>數月試煉,堅持之期,舊德耗盡,最終轉機</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>古老之處,傳統居所,險峻之地,王事殿堂</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>舊德之物,傳統食物,謹慎之道,王事無成</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1415,11 +2115,31 @@
       <c r="E37" t="n">
         <v>4</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>順從之人,變通者,守正之士,謹慎之輩</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>爭執失敗,回歸本位,轉變革新,吉祥堅持</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>數周,轉折之時,及時回歸,安穩之季</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>安穩居所,隱退山林,變革河流,平靜庭院</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>舊契約,遺失遺產,變更文書,安定居所</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1441,11 +2161,31 @@
       <c r="E38" t="n">
         <v>5</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>高階管理人,公正仲裁者,化解紛爭者,權威領導</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>糾紛化解,和解成功,吉祥結局,和平談判</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>法庭,邊界之地,低窪濕地,爭端之所</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>糾紛之源,和解之局,法庭之處,勝利之象</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1467,11 +2207,31 @@
       <c r="E39" t="n">
         <v>6</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>不穩定之人,榮華易逝者,機會主義者,地位浮沉者</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>贈與榮耀,短暫擁有,反覆喪失,終朝變動</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>短暫時期,一天之內,快速變動,數小時內</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>權力中心,榮華殿堂,易逝宮廷,變幻官場</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>貴重佩帶,短暫榮華,易脫之飾,朝夕變遷</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1493,11 +2253,31 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>嚴格紀律者,軍事領袖,律法執行人,謹慎將領</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>無律出師,暴露危機,團隊凶險,紀律缺失</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>軍事基地,嚴格紀律之境,隱藏凶險之地,戰爭前線</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>嚴格法典,隱藏陷阱,軍事紀律,凶險藏匿</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1519,11 +2299,31 @@
       <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>中階管理者,忠誠部下,受賞之人,平衡謀士</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>集體行動,上級認可,多次指令,中等吉祥</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>三階段,多次重複,數月之期,漸進三步</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>軍營陣地,領導駐地,中樞機構,賞賜殿堂</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>軍事集體,領導使命,多次獎賞,中道吉祥</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1545,11 +2345,31 @@
       <c r="E42" t="n">
         <v>3</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>失敗領導者,災禍引領者,無生氣之人,凶險軍師</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>屍體出現,軍隊失敗,凶兆降臨,領導喪失</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>延遲時期, 漫長等待, 數月停滯, 凶險延後</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>戰場,屍體抬運處,凶險軍營,災禍遺址</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>失敗軍隊,抬屍行列,死亡損失,凶險結局</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1571,11 +2391,31 @@
       <c r="E43" t="n">
         <v>4</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>謹慎將領,靈活策略家,避免風險者,調整方向之人</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>集體轉向,戰略調整,暫時休息,平安無災</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>數日,短暫停留,轉折時刻,適時調整</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>左側之地,安全營地,戰略據點,避險之處</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>左側營地,軍事調整,安全陣地,謹慎退守</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1597,11 +2437,31 @@
       <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>年長領導者,軍事指揮官,過度自信之人,需謹慎帥才</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>長者領軍,年輕者喪敗,田野捕禽,言行凶險</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>田野, 狩獵場, 戰場, 領導陣地</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>禽獸,長子領導者,弟子從屬,屍體死亡</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1623,11 +2483,31 @@
       <c r="E45" t="n">
         <v>6</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>大君,貴族,開創者,領導者</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>高階領導,開創基業,繼承家業,避免小人</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>開端時刻,長期承傳,世代相續,重大轉折時</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>王宮,國都,家族宅邸,權力中心</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>高階領袖,權威命令,傳承寶物,貴族遺產</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1649,11 +2529,31 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>誠信之人,親和之友,豐盈守護者,吉祥引領者</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>誠信親比,無災避禍,豐滿盈器,意外終吉</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>數周,漸滿之時,豐收季,終局吉時</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>親近聚集之地,信實盈滿之所,容器內部,吉祥匯聚之境</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>陶器,滿盈容器,誠信信物,親比之器</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1675,11 +2575,31 @@
       <c r="E47" t="n">
         <v>2</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>內在親和者,誠摯可靠之人,正直領袖,忠誠夥伴</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>內部團結,親密連結,守正之路,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>內在的親近之地,和諧的聚集空間,守正的聯盟場所,內心庇護之所</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>內在紐帶,親密夥伴,守正盟友,團結之繩</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1701,11 +2621,31 @@
       <c r="E48" t="n">
         <v>3</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>奸詐之人,小人,背信之人,陰險者</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>誤交匪類,不良結盟,潛在背叛,關係危機</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>不適當聚集處,陌生人環境,危險親近地,匪類出沒所</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>不義之人,虛假盟友,隱藏敵人,危險親近</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1727,11 +2667,31 @@
       <c r="E49" t="n">
         <v>4</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>親和之人,團結領袖,正直君子,和睦之友</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>外部聯盟,親近他人,持正之道,吉祥轉折</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>親比之地,和合場所,團結外域,吉祥親近所</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>外部盟友,親近之橋,結盟之繩,正道之守</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1753,11 +2713,31 @@
       <c r="E50" t="n">
         <v>5</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>高階領導人,策略性統治者,寬容之人,顯著親比者</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>高階統治者,狩獵圍捕,錯失小利,人民安樂</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>數周,狩獵季,漸進期,延遲後</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>廣闊狩獵場,王之領地,邑人周邊,安全逃脫地</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>仁慈君王,三面圍獵,放走獵物,平安邑人</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1779,11 +2759,31 @@
       <c r="E51" t="n">
         <v>6</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>無首領者,混亂追隨者,缺乏方向之人,凶險盲從者</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>無首領,混亂團體,凶險聯盟,孤立失敗</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>無領導之處,混亂群聚之地,無序之境,凶險聚落</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>無首之群,混亂集會,斷緒之物,凶險聯盟</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1805,11 +2805,31 @@
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>悔悟之人,正道回歸者,无咎順從者,吉祥轉變者</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>歸家之人,陽光初現,舊道重返,平安無虞</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>春天,初春,數日,短暫回歸</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>回歸之途,起源之地,寧靜居所,道之隱處</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>回歸之路,正道,無咎之行,吉祥復興</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1831,11 +2851,31 @@
       <c r="E53" t="n">
         <v>2</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>引導者,溫和回歸之人,賢良之士,謙遜牽引者</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>舊友重逢,引導回歸,吉祥援助,復興轉機</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>數日,及時回歸,冬去春來,短暫等待</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>家園,歸途,庇護所,原點</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>繩索,返回之途,舊友,引導者</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1857,11 +2897,31 @@
       <c r="E54" t="n">
         <v>3</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>衝突之人,反目夫妻,不和諧者,關係破裂者</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>分離,爭執,關係破裂,合作失敗</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>衝突之室,破裂家庭,動盪車道,反目之地</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>散開車輪,破裂關係,爭執夫妻,故障車輛</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1883,11 +2943,31 @@
       <c r="E55" t="n">
         <v>4</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>誠信之人,化解衝突者,消除恐懼者,無災正直者</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>危機化解,恐懼消散,傷害終止,平安到來</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>數周,短期蓄積,風行轉機,惕消之時</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>安全庇護所,信任恢復之地,恐懼消散之域,無虞渡口</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>繃帶,誓約,燈火,鎖匙</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1909,11 +2989,31 @@
       <c r="E56" t="n">
         <v>5</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>誠信之人,謙遜富者,團結鄰里,惠及他人</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>誠信之人,束縛困境,共享富足,鄰里援助</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>綁縛之處,鄰里聚居區,富庶邊陲,互助社區</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>繩索,財富之物,鄰近之人,誠信之盟</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1935,11 +3035,31 @@
       <c r="E57" t="n">
         <v>6</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>高位德者,謹慎君子,婦人守正者,征凶領導</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>雨後安定,德行滿載,婦人守正險,君子遠征凶</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>月幾望,滿月前夕,圓滿將近,數日後</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>雨後平地,月將滿之夜,德澤充盈之所,潛藏危險之境</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>雨後安定,崇德載物,婦守正險,月近滿凶</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1961,11 +3081,31 @@
       <c r="E58" t="n">
         <v>1</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>樸素之人,誠懇行者,謙虛君子,正直前進者</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>謙遜之人,簡單前行,無咎之路,順利事件</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>平坦小徑,樸素通道,安全前行路,無礙之地</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>樸素鞋履,簡單足具,誠實行物,無華裝備</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1987,11 +3127,31 @@
       <c r="E59" t="n">
         <v>2</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>隱士,謙遜之人,守正者,平坦之道行者</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>平坦大道,隱居守正,順利前行,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>平坦時期,順利之時,守正數月,吉祥之季</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>平坦之路,隱居之處,幽靜之地,順暢之道</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>平坦大道,隱居賢者,順利坦途,守正之人</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2013,11 +3173,31 @@
       <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>勇敢武人,魯莽行動者,效忠君主者,缺陷冒險者</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>老虎尾巴, 被咬傷, 凶險遭遇, 冒險失敗</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>隱藏危險之處,老虎出沒野地,軍事權力中心,凶險叢林</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>猛獸之尾,殘疾行者,隱藏凶險,武裝侍從</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2039,11 +3219,31 @@
       <c r="E61" t="n">
         <v>4</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>謹慎之人,警惕行者,危機中求穩者,終獲吉祥者</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>猛獸威脅,謹慎前行,危機轉吉,幸運結局</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>數日警惕,短期緊張,經過試煉,轉機之時</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>隱藏危險之地,野獸出沒之域,謹慎前行之路,終安之境</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>老虎尾巴,危險邊緣,謹慎步伐,吉祥結局</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2065,11 +3265,31 @@
       <c r="E62" t="n">
         <v>5</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>果斷之人,警惕行者,謹慎決策者,危險履踐者</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>決斷時刻, 謹慎前行, 潛在危險, 正道堅持</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>危險之路,警惕之地,決斷之境,虎尾之所</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>薄冰路徑,決斷之劍,危險邊緣,謹慎步伐</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2091,11 +3311,31 @@
       <c r="E63" t="n">
         <v>6</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>謹慎之人,智慧領袖,自我檢視者,吉祥回歸者</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>謹慎審視者,吉祥循環,幸運轉折,考察跡象</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>循環周期,回轉之時,數月考察,元吉轉折</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>考察之路,迴旋之庭,吉祥殿堂,謹慎階梯</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>謹慎之履,祥瑞之符,回旋之路,吉祥之輪</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2117,11 +3357,31 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>團結之人,聚集領袖,連帶盟友,合作前驅</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>同類聚集,連根拔起,征途順利,集體成功</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>春天,數日,生長期,聚集時</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>聚集之處,連根草叢,團結場所,茂密田野</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>茅草叢,連根植物,聚集之群,團結之網</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2143,11 +3403,31 @@
       <c r="E65" t="n">
         <v>2</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>包容者,涉險渡河者,忠誠不離者,中正之道行者</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>包容混亂,渡河險途,盟友離散,中道尊崇</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>渡河之期,數日艱難,中道之時,朋散之後</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>荒涼之地,河流渡口,中道之路,危險水域</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>包容之器,渡河之舟,中正之道,障礙清除</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2169,11 +3449,31 @@
       <c r="E66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>堅持之人,信實者,堅韌之人,得福者</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>循環起伏,艱難堅持,信實歸來,滋養福澤</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>循環周期,往復之時,數月恢復,艱難後福</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>起伏山坡,循環河谷,艱險渡口,豐饒田野</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>循環之路,復歸之途,艱難堅持,飲食之福</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2195,11 +3495,31 @@
       <c r="E67" t="n">
         <v>4</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>輕浮之人,誠信之人,鄰里不依財者,自然取信者</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>輕快飛揚,鄰里共享,誠信相交,無戒之姿</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>數日,短暫,迅捷,無延遲</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>鄰里和睦之地,輕快飛揚之境,無警誠信之域,聚居無虞之所</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>飛揚之鳥,誠信之符,輕盈之物,鄰里之緣</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2221,11 +3541,31 @@
       <c r="E68" t="n">
         <v>5</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>高貴之人,媒人,吉祥伴侶,福祉帶來者</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>帝王嫁女,家族聯姻,福祉降臨,大吉祥事</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>帝王宮殿,嫁娶之堂,吉祥居所,聯姻聖地</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>年長君王,貴族聯姻,吉祥婚禮,福祉契約</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2247,11 +3587,31 @@
       <c r="E69" t="n">
         <v>6</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>退守之人,謹慎領袖,求援者,保守管理者</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>城牆崩壞, 避免衝突, 內部通報, 小遺憾</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>數月修復,崩壞之時,短暫延遲,即時通報</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>崩壞城牆,護城河畔,邑中據點,低窪危地</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>崩塌之城牆,填塞護城河,內邑命令,堅持遺憾</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2273,11 +3633,31 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>團結之人,根基深厚者,聚集夥伴,謙和領導</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>聚集,連帶效應,吉祥亨通,根系相連</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>茂密草叢,聚集之地,連根社區,團結田野</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>連根草叢,團結群體,相連根莖,聚集之物</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2299,11 +3679,31 @@
       <c r="E71" t="n">
         <v>2</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>小人,卑微者,順從者,機靈之人</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>包容包圍,小人幸運,大人挫敗,亨通進展</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>隱藏之處,包容容器,低階領域,承載空間</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>包容之盒,承接之囊,小人之包裹,亨通容器</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2325,11 +3725,31 @@
       <c r="E72" t="n">
         <v>3</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>隱藏羞恥之人,掩飾錯誤者,內心愧疚者,低調避世者</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>包藏羞辱,隱忍恥辱,秘密負擔,包容難題</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>隱藏之處,羞愧之地,包藏之室,秘密角落</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>隱藏之羞,包裹的缺陷,內心愧疚,掩蓋的恥辱</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2351,11 +3771,31 @@
       <c r="E73" t="n">
         <v>4</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>順命之人,無咎者,福祉依附者,天眷顧者</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>命運眷顧,無災庇佑,福澤難離,福祉永存</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>庇護之所,安全港灣,命運交會點,離別之地</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>天命之符,吉祥護符,無災之令,福祉之源</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2377,11 +3817,31 @@
       <c r="E74" t="n">
         <v>5</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>大人,領導者,謹慎之人,穩固之根</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>危機警兆,大人堅守,桑樹綁縛,困境化解</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>危機迫近,數日堅持,短暫否運,春季轉機</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>堅固根基,桑樹叢林,隱藏庇護處,穩固綁縛地</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>堅韌之桑,牢靠束縛,年長者根基,避亡之繩</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2403,11 +3863,31 @@
       <c r="E75" t="n">
         <v>6</v>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>逆境轉機者,先閉塞後開朗之人,堅韌求喜悅者,困境後喜運之人</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>困境,轉機,喜事,意外收穫</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>數周後轉機,短期阻礙,後喜之期,春天來臨</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>傾斜之谷,混亂之境,轉型之所,喜悅之門</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>閉塞轉喜,先苦後甜,否極泰來,逆轉新生</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2429,11 +3909,31 @@
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>開放之人,合作夥伴,門檻守護者,無咎盟友</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>門口相遇,初次合作,公開團結,無災無害</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>數天,門檻時刻,短期內,即時相合</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>門口,入口,門檻,公共門道</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>門口之處,社交入口,合作相遇,無害聚會</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2455,11 +3955,31 @@
       <c r="E77" t="n">
         <v>2</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>親族,保守之人,家族長者,依賴舊識</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>家族聚會,宗族長輩,小遺憾,親近之處</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>古老宗廟,家族聚會處,傳統儀式廳,吝惜之域</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>家族聚會,宗廟儀式,傳統聯盟,小遺憾</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2481,11 +4001,31 @@
       <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>隱藏實力者,觀望高地之人,長期隱忍者,停滯不前者</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>隱藏之處,高陵,數年,潛伏等待</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>三年,長期等待,數年不興,隱忍時機</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>茂密草叢,高聳丘陵,隱伏之地,靜止高地</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>隱藏兵器,草叢潛伏,高坡觀望,三年延遲</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2507,11 +4047,31 @@
       <c r="E79" t="n">
         <v>4</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>謹慎之人,智慧策略家,忍耐守護者,接近不強求者</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>高牆防禦,無法攻克,守成吉祥,克制衝動</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>數周,等待之時,延後期,數月</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>高處,城牆,堅固堡壘,防禦要塞</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>高牆,堅固堡壘,等待時機,吉祥結局</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2533,11 +4093,31 @@
       <c r="E80" t="n">
         <v>5</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>領導者,堅韌之人,盟友,勝利將軍</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>初始悲傷,後續歡笑,大軍相遇,克服困境</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>初難之期,轉喜之時,數月試煉,大軍相遇</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>廣野,軍事集會地,轉變之境,相遇之所</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>大軍,哭笑轉變,相遇勝利,團結力量</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2559,11 +4139,31 @@
       <c r="E81" t="n">
         <v>6</v>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>郊外旅人,團結夥伴,開放友人,無悔行者</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>郊外相遇,遠方合作,無悔聯盟,邊緣團結</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>郊外,邊緣地帶,開放田野,遠離中心處</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>郊外聚會,開放田野,團結無悔,邊緣和諧</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2585,11 +4185,31 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>謹慎之人,獨立決策者,堅韌耐難者,避免紛爭者</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>避免交涉之害,免於過錯之咎,艱難中堅持,安穩無災</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>艱難時期,試煉之時,數月無虞,短期無咎</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>隱藏之處,孤立之地,艱難山徑,安全退隱地</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>無害之盟,安全艱途,堅韌庇護,無咎之橋</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2611,11 +4231,31 @@
       <c r="E83" t="n">
         <v>2</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>穩重之人,承載重任者,行動無礙者,可靠旅人</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>負重前行,順利運輸,行動無礙,載物之旅</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>寬闊道路,載重之地,通暢之路,旅途之處</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>大型車輛,載重容器,順利之旅,無礙進展</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2637,11 +4277,31 @@
       <c r="E84" t="n">
         <v>3</v>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>高階貴族,公卿大臣,受寵之人,卑微小人</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>高階貴族,享用榮耀,機會受限,小人阻隔</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>正式儀式期,貴族昇華時,長久等待季,小人修煉年</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>皇宮,祭祀殿堂,權威居所,貴族領域</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>貴族禮器,天子寶物,高位象徵,小人禁區</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2663,11 +4323,31 @@
       <c r="E85" t="n">
         <v>4</v>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>謙虛之人,低調者,節制之人,不張揚者</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>謙遜之人,適度成長,避免災禍,平穩發展</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>短暫時期,數日,適時停止,初春</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>隱藏之處,低調之地,安全隱匿處,平靜之境</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>平凡之物,簡樸之器,界限之線,適度容器</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2689,11 +4369,31 @@
       <c r="E86" t="n">
         <v>5</v>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>可靠之人,威嚴領袖,誠信君子,吉祥貴人</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>信實交織,威嚴顯現,吉祥降臨,順利發展</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>莊嚴殿堂,信任盟約處,威嚴庭院,吉祥聖地</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>交織契約,威嚴徽章,吉祥護符,可靠盟約</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2715,11 +4415,31 @@
       <c r="E87" t="n">
         <v>6</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>受天佑之人,吉祥之士,德高望重者,仁慈君子</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>幸運降臨,天助順利,吉祥事件,無礙好運</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>神聖之處,天佑福地,吉祥樂土,順利境域</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>天降之佑,吉祥護符,順利之光,無不利之門</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2741,11 +4461,31 @@
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>謙虛君子,謹慎渡河者,克服大難之人,吉祥謙和者</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>謙虛君子,涉越大川,重大挑戰,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>大川,險峻水域,渡河之地,廣闊河流</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>謙虛君子,渡河之舟,大川之水,吉祥涉險</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2767,11 +4507,31 @@
       <c r="E89" t="n">
         <v>2</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>謙虛之人, 守正發言者, 謹慎表達者, 吉祥謙者</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>謙虛發聲,公開表達,正道堅持,吉祥回應</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>低窪之地,隱藏之谷,謙遜之境,發聲之所</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>謙虛的聲音,鳥鳴之象,吉祥的宣告,守正之器</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2793,11 +4553,31 @@
       <c r="E90" t="n">
         <v>3</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>謙虛勞碌之人,堅持君子,終獲吉祥者,低調領袖</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>謙虛勞作者,終局成功,吉祥轉折,持久努力</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>勞苦之期,持久過程,終結之時,吉祥之季</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>勞作之地,低窪隱處,安定之境,謙卑之谷</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>謙遜勞作者,堅持君子,好結局象徵,吉祥之果</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2819,11 +4599,31 @@
       <c r="E91" t="n">
         <v>4</v>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>謙虛之人,廣大胸懷者,順利之人,謹慎之人</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>順利前進,謙虛獲益,無礙突破,好運降臨</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>廣闊平原,謙虛山谷,和諧田野,順利道路</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>真誠謙虛者,無害平衡物,純淨泉源,順利之途</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2845,11 +4645,31 @@
       <c r="E92" t="n">
         <v>5</v>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>獨立決策者,積極進取者,策略領袖,好戰之人</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>鄰里衝突,主動進取,攻克難關,成功無礙</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>邊境之地,鄰近村落,戰場邊緣,資源爭奪區</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>鄰居,盟友,借力攻擊,順利戰果</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2871,11 +4691,31 @@
       <c r="E93" t="n">
         <v>6</v>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>謙虛領袖,果敢將軍,發聲謙和者,征伐指揮</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>謙虛宣告,領導行動,小規模征伐,成功出師</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>適當時機,數日內,短期征伐,聲明後不久</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>邊境小國,軍事征伐之地,邑落村莊,謙虛進軍之處</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>鳴叫之鳥,軍事號角,邊境小邑,謙虛將領</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2897,11 +4737,31 @@
       <c r="E94" t="n">
         <v>1</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>輕浮之人,炫耀者,過度喜悅者,凶險召喚者</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>過度宣揚,意外災禍,猛烈衝動,導致失敗</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>數日,短期,春季,快速轉凶</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>喧鬧廣場,虛浮宴會廳,過度歡樂之地,危險社交圈</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>鳴叫之聲,過度喜悅,張揚預兆,凶險警告</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2923,11 +4783,31 @@
       <c r="E95" t="n">
         <v>2</v>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>堅定之人,快速決斷者,正直支柱,岩石般可靠</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>石頭障礙,快速突破,堅定堅持,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>短暫時刻,迅速解脫,即日吉祥,片刻困境</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>石頭夾縫,堅硬險阻處,狹窄岩間,短暫困地</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>堅硬之石,阻礙之物,快速突破,吉祥象徵</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2949,11 +4829,31 @@
       <c r="E96" t="n">
         <v>3</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>自滿之人,猶豫不決者,過度喜悅者,悔恨預兆者</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>自滿,悔恨,猶豫,錯失</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>數日, 即刻, 短暫, 避免延遲</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>誘人高地,危險路口,遲疑山徑,悔恨幽谷</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>警惕之眼,遲疑之足,悔恨之影,過度喜悅</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2975,11 +4875,31 @@
       <c r="E97" t="n">
         <v>4</v>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>喜悅之人,自信領袖,社交聚集者,受益樂觀者</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>喜悅時刻,豐盛收穫,朋友團聚,信任聚集</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>數天,短期,春季,即將</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>聚集之處,豐盛之地,信任環境,社交圈</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>喜悅之源,聚集之友,信任之簪,大有所得之寶</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3001,11 +4921,31 @@
       <c r="E98" t="n">
         <v>5</v>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>堅韌之人,病中守正者,持久不朽者,穩健病患</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>長期病痛,堅持試煉,緩慢康復,終得生機</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>長久持續, 數月不絕, 持久階段, 永恆之境</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>病榻,療養隱居之處,危險持久之地,恒定不癒之境</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>頑疾,持久之物,守正之人,慢性病患</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3027,11 +4967,31 @@
       <c r="E99" t="n">
         <v>6</v>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>低調之人, 適應變化者, 隱藏樂觀者, 無咎智者</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>困境轉喜,成功達成,適應變化,無災禍</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>數日,轉變之時,初春,短暫等待</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>幽暗轉明之境,隱藏喜悅之所,變更無虞之地,冥冥成形之處</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>幽暗喜悅、變革鑰匙、無咎轉機、隱秘成全</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3053,11 +5013,31 @@
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>高階官員,變動中堅守者,外出結交成功者,領導社交型</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>職位變動,外出結交,有益功勞,堅持正道</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>官府,變動之境,門外之道,交友之所</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>高階管理人,變動之物,契約文件,外出禮物</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3079,11 +5059,31 @@
       <c r="E101" t="n">
         <v>2</v>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>年輕不成熟者,卑微依附之人,失卻高尚君子,選擇小人而非賢者</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>年長者,小孩,束縛,失去機會</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>稚子聚集處,長者缺席之地,小型拘束區,依賴弱小之境</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>小子,大人,束縛,遺失</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3105,11 +5105,31 @@
       <c r="E102" t="n">
         <v>3</v>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>年長者,成熟之人,有地位者,謹慎之人</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>重要盟友,失去小利,依附獲益,堅持正道</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>權威之殿堂,穩固居所,正式場合,正直之地</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>年長者, 小子, 繫縛之物, 守正之道</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3131,11 +5151,31 @@
       <c r="E103" t="n">
         <v>4</v>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>隨和的追隨者,誠信的明者,道中的指導者,獲利卻需慎之人</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>獲利追隨,貞正凶險,誠信之道,明朗無咎</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>道路,明朗之道,誠信之地,獲取之途</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>小狐,濡尾之物,渡川之險,誠信之道</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3157,11 +5197,31 @@
       <c r="E104" t="n">
         <v>5</v>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>誠信之人,嘉美之人,吉祥友人,可靠之士</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>信任之約,美好相遇,吉祥發展,成功之喜</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>美好之處,吉祥之地,誠信之境,信任聖地</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>信物,玉佩,誓約之物,吉祥符</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3183,11 +5243,31 @@
       <c r="E105" t="n">
         <v>6</v>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>被拘束之人,維繫忠誠者,西山祭祀者,隱居高士</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>束縛之難,順從維繫,西山祭祀,王者慶典</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>數周,秋季,西山之時,祭祀成熟</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>西方高山,拘束之境,祭祀聖地,維繫山巔</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>繩索,拘束之物,西山祭壇,維繫工具</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3209,11 +5289,31 @@
       <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>年輕繼承者,改革管理者,謹慎改革者,終獲吉祥之人</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>年長者之弊,年輕繼承者,危險轉吉,最終成功</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>數月,經過審查,危險期後,最終吉時</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>祖宅遺址,腐朽廳堂,傳承庭院,改革之域</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>年長者,腐敗遺產,年輕繼承人,考驗工具</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3235,11 +5335,31 @@
       <c r="E107" t="n">
         <v>2</v>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>母親形象,根源腐敗處理者,靈活決策者,家族長者</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>年長女性,腐敗根源,不宜固執,需柔順變通</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>腐敗之地,隱藏之屋,母親居所,不宜停留之境</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>年長母親,腐敗之源,干預工具,禁忌遺物</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3261,11 +5381,31 @@
       <c r="E108" t="n">
         <v>3</v>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>年長者,改革者,權威人士,謹慎決斷者</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>年長者,腐敗糾正,小悔恨,無大礙</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>數周,小延遲,初時,漸進之期</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>古老居所,腐敗之所,改革之地,隱藏問題處</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>年長者,腐敗之源,小遺憾,處理工具</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3287,11 +5427,31 @@
       <c r="E109" t="n">
         <v>4</v>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>寬容長者,保守繼承人,猶豫改革者,遺憾決斷者</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>寬容之父,處理舊蠱,急進遺憾,小麻煩</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>舊屋,腐敗之地,父親居所,隱藏弊端</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>腐敗之器,舊時遺毒,修復工具,遺憾之源</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3313,11 +5473,31 @@
       <c r="E110" t="n">
         <v>5</v>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>高階管理者,改革先驅,獲譽長者,責任繼承人</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>年長者,糾正弊端,獲譽聲,改革成功</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>祖宅,腐朽之屋,遺產之地,聲譽之堂</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>年長者,權威象徵,舊習弊端,名譽之源</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3339,11 +5519,31 @@
       <c r="E111" t="n">
         <v>6</v>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>高尚之人,隱逸之士,不慕權勢者,志向高遠者</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>獨立自主,高潔隱居,拒絕權貴,遠離宮廷</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>遲暮之時,數年後,隱居期,秋冬</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>高山,隱居之地,清靜之境,遠離塵囂之處</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>隱士,高潔之人,獨立靈魂,不媚權貴之物</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3365,11 +5565,31 @@
       <c r="E112" t="n">
         <v>1</v>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>感應之人,親和領袖,正直守道者,和谐調和者</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>感應之交,臨近監督,正固吉祥,溫和吸引</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>即將臨近,數日內,春季伊始,短期階段</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>山澤交界,感應之境,會合場所,吉祥殿堂</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>吸引之物,和諧之器,臨近之橋,吉祥之符</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3391,11 +5611,31 @@
       <c r="E113" t="n">
         <v>2</v>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>感應之人,和諧領袖,吉祥統治者,無不利者</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>感應相會,吉祥臨近,順利交融,無礙進展</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>及時之機,即刻感應,數日內,春風拂面</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>山澤交會處,和諧感應之地,吉祥臨近之境,俯視治理之域</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>感應磁石,親密連結,吉祥橋樑,順利通道</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3417,11 +5657,31 @@
       <c r="E114" t="n">
         <v>3</v>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>甜言誘惑者,表面溫和之人,隱藏危險者,需警惕親近者</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>甜蜜誘惑,虛假接近,憂慮警惕,無咎結局</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>數日甜蜜,憂慮數周,轉折之時,無咎後</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>甜蜜誘惑之境,隱藏危機之地,溫暖但危險的居所,需警惕的樂園</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>甜蜜誘惑,虛假接近,憂慮預防,隱藏陷阱</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3443,11 +5703,31 @@
       <c r="E115" t="n">
         <v>4</v>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>親民領袖,謙遜統治者,接近下屬者,無災管理者</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>接近高位,順利臨近,無災禍,領導機會</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>即將到來,短暫等待,不久後,迅速臨近</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>高處,臨近邊緣,監督之境,平安之地</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>臨近之門,安全邊緣,親近之人,無災之境</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3469,11 +5749,31 @@
       <c r="E116" t="n">
         <v>5</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>智慧領袖,高階統治者,明智君王,吉祥指導者</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>智慧觀察,高階領導,吉祥臨近,適宜決策</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>即將來臨,適宜時刻,數日內,領導之時</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>統治之殿,高位宮廷,領袖居所,莊嚴之地</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>高階領袖,智慧長者,君王權杖,吉祥決策</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3495,11 +5795,31 @@
       <c r="E117" t="n">
         <v>6</v>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>敦厚之人,仁慈長者,誠摯領導,厚道君子</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>敦厚親近,吉祥臨事,無咎結局,領導敦勉</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>即將臨近,短期內,數月,通泰期</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>高處,監督之境,親近之地,和諧之域</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>敦厚之人,穩重領導,吉祥接近,無咎臨事</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3521,11 +5841,31 @@
       <c r="E118" t="n">
         <v>1</v>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>純真孩童,淺薄觀者,無知小人,隨便之人</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>幼稚觀望,輕率無咎,君子遺憾,觀望吝惜</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>短暫觀望,起始階段,數日內,幼稚時期</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>童稚之地,嬉戲場所,輕浮環境,君子避之處</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>幼稚孩童,淺薄觀察,小人視角,君子憾惜</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3547,11 +5887,31 @@
       <c r="E119" t="n">
         <v>2</v>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>窺探之人,隱秘觀察者,貞淑女子,守正女性</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>窺視隱秘,女性守正,觀望謹慎,秘密注視</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>隱藏之處,窺視窗口,私密角落,門縫觀察</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>隱藏觀察者,婦女身影,正固守護,窺視之窗</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3573,11 +5933,31 @@
       <c r="E120" t="n">
         <v>3</v>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>猶豫之人,觀望者,進退不定者,自我反省者</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>觀察生平,進退猶豫,領導困境,抉擇時刻</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>猶豫之時,數日觀望,進退不定期,短暫決策</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>觀望之地,門檻之處,猶豫之境,成長之園</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>觀察者,猶豫之人,鏡像之物,進退之境</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3599,11 +5979,31 @@
       <c r="E121" t="n">
         <v>4</v>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>高階貴族, 智慧顧問, 謙虛觀察者, 受王青睞者</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>高階領袖,榮耀光輝,貴賓機會,權力接近</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>王者盛世,光輝顯現期,賓客適逢時,數月內</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>王宮,國都,光輝殿堂,賓客之所</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>高貴賓客,國家榮耀,宮廷光芒,王者之席</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3625,11 +6025,31 @@
       <c r="E122" t="n">
         <v>5</v>
       </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>自省之人,謹慎君子,觀察者,內省者</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>自我觀察,君子反省,無咎平安,內省時刻</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>高處,觀望之地,風吹之境,成長園林</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>觀察者,自我反省,君子之道,無咎之境</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3651,11 +6071,31 @@
       <c r="E123" t="n">
         <v>6</v>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>觀察者,君子,謹慎之人,學習者</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>觀察生長, 君子之道, 無咎之象, 正直安全</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>數周, 成長季, 觀察期, 季節轉變</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>生長之園,觀察之丘,無咎之境,生命泉源</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>生長之物,觀察者,無咎成長,自然萌芽</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3677,11 +6117,31 @@
       <c r="E124" t="n">
         <v>1</v>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>剛直之人,堅毅行者,受小傷無咎的勇士,不畏挫折的旅人</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>小意外,輕微損失,腳部不適,最終平安</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>短暫延遲,數日磨礙,即將無虞,快速恢復</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>破舊之路,輕微損壞之地,安全隱患處,行走不便境</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>斷裂之繩索,舊鞋,輕傷之趾,小過無害</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3703,11 +6163,31 @@
       <c r="E125" t="n">
         <v>2</v>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>果斷之人,承受小損者,無大禍者,噬嗑執行者</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>過度用力,輕微損傷,最終無害,化解危機</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>數日, 短期內, 即時行動, 迅速解決</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>狹窄通道,障礙重地,火熱邊緣,損傷之境</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>柔軟之皮,鼻形損壞,無害過度,咬合之物</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3729,11 +6209,31 @@
       <c r="E126" t="n">
         <v>3</v>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>高位領袖,遇險謹慎者,化解小憂之人,堅韌無咎者</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>乾硬肉食,隱藏毒害,小遺憾,最終無虞</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>冬季,寒冷之時,數月,僵硬時期</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>隱藏毒物之處,食物儲藏地,看似安全之廚房,乾肉陳列間</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>帶毒臘肉,隱藏毒物,表面安全之食,微險食物</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3755,11 +6255,31 @@
       <c r="E127" t="n">
         <v>4</v>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>堅韌之人,堅持正道者,逆境獲益者,克服難關者</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>難題,突破,貴重發現,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>數周, 艱難時期, 堅持之時, 突破之日</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>堅硬乾旱之地,隱藏金屬寶物之處,艱難考驗之境,堅持獲利之所</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>堅硬之物,金屬箭,乾硬食物,艱難獲寶</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3781,11 +6301,31 @@
       <c r="E128" t="n">
         <v>5</v>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>堅韌之人,謹慎之人,意外得利者,警惕的冒險者</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>枯燥勞動,意外財富,謹慎警惕,平安無災</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>數月, 艱難時期後, 黃金時機, 堅持無咎</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>堅硬之地,隱藏寶庫,乾旱荒野,礦藏深處</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>乾硬食物,隱藏黃金,艱難獲寶,危中無害</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3807,11 +6347,31 @@
       <c r="E129" t="n">
         <v>6</v>
       </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>嚴厲執法者,固執暴君,過度懲罰之人,自損強硬者</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>過度懲罰,毀滅聽覺,凶險災禍,意外喪失</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>短暫時刻, 突然毀滅, 數日內, 即時凶險</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>毀滅之地,危險校園,聽聞凶訊之處,滅絕區域</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>焚燒之火,毀滅之校,失聽之耳,凶險之災</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3833,11 +6393,31 @@
       <c r="E130" t="n">
         <v>1</v>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>謹慎之人,低調行者,謙虛步履者,避險者</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>腳趾傷害,棄車步行,艱辛前行,謙卑謹慎</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>數日,緩慢前行,短期內,步步為營</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>崎嶇小徑,泥濘路途,步行巷弄,偏僻山徑</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>腳趾飾品,棄置車輛,徒步之路,謙遜之履</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3859,11 +6439,31 @@
       <c r="E131" t="n">
         <v>2</v>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>年長者,權威人士,經驗豐富之人,正式之人</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>邊緣之處,年長鬚髮,衰退之象,吝惜之事</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>延遲期,數月,彎曲之路,等待轉折</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>邊緣之地,周邊區域,邊境地帶,鬚眉交界</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>彎曲之鬚,柔韌毛髮,順從之物,忍讓象徵</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3885,11 +6485,31 @@
       <c r="E132" t="n">
         <v>3</v>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>柔順之人,潤澤者,邊緣行者,守正君子</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>聚集之極,柔軟浸潤,長久堅持,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>長久, 永恒, 數月, 持續</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>邊緣濕地, 水畔隱處, 潮濕邊陲, 沼澤邊界</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>圓滿之盤,濕潤液體,滋養之源,柔軟容器</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3911,11 +6531,31 @@
       <c r="E133" t="n">
         <v>4</v>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>白馬騎士,求婚追求者,婚姻盟友,意外訪客</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>白馬飛馳,偽裝寇賊,意外求婚,婚姻聯盟</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>邊緣時刻,老年階段,迅捷飛馳,突然結合</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>老人居所,馬匹奔馳之道,求婚之廳堂,安全相遇之地</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>年長者,白馬,婚姻,求婚</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3937,11 +6577,31 @@
       <c r="E134" t="n">
         <v>5</v>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>謙遜之人,節儉禮節者,徘徊丘園者,終獲吉祥者</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>隱居丘園,謙遜小禮,初始吝惜,最終吉祥</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>數周,季節轉變,延遲期,後半年</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>高處, 丘園, 隱藏之處, 聚集園林</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>薄絲綢,綁束禮物,丘園景觀,吝嗇包裹</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3963,11 +6623,31 @@
       <c r="E135" t="n">
         <v>6</v>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>純潔之人,順從者,溫順之人,無咎者</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>純潔之人,邊緣支持,無災事件,輔助平安</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>河堤,綁縛之處,水邊高地,穩定之地</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>純白飾物,樸素邊緣,無華裝飾,堅韌皮革</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3989,11 +6669,31 @@
       <c r="E136" t="n">
         <v>1</v>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>基礎不穩之人,無依之人,固執守舊者,危機堅持者</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>基礎動搖,小事忽視,起始崩壞,隱患滋長</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>低矮之處,床腳,基礎薄弱之地,隱秘角落</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>床腳,基礎支撐,崩壞基石,剝落之物</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4015,11 +6715,31 @@
       <c r="E137" t="n">
         <v>2</v>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>輕率之人,忽略根基者,固執守正者,衰敗決策者</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>基礎崩壞,衰敗開始,堅持凶險,鄙陋處境</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>崩壞基部,隱藏損毀,危險低處,剝蝕結構</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>舊床,腐朽根基,剝落之處,毀滅之象</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4041,11 +6761,31 @@
       <c r="E138" t="n">
         <v>3</v>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>果斷之人,適時放手者,智謀避禍者,剝落舊習者</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>分離,剝落,無害,平安</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>山腳,衰敗之地,隱秘角落,剝落邊緣</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>舊皮,腐朽枝葉,障礙層,剝落之物</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4067,11 +6807,31 @@
       <c r="E139" t="n">
         <v>4</v>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>脆弱之人,衰弱領袖,崩潰邊緣者,無助長者</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>基礎崩壞,皮膚剝落,個人損傷,凶險降臨</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>數月剝蝕, 衰落之末, 臨界時刻, 秋冬交接</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>破敗床榻,剝蝕居所,危險隱私處,衰亡邊緣</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>剝蝕之床,皮膚損傷,基礎崩壞,親近凶兆</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4093,11 +6853,31 @@
       <c r="E140" t="n">
         <v>5</v>
       </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>受寵之人,順利侍從,宮廷寵兒,無不利者</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>貴人寵愛,魚貫連貫,順利無礙,內部支持</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>宮廷,貴族居所,華麗廳堂,寵幸之地</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>串魚,宮廷寵兒,順利連結,無礙之寵</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4119,11 +6899,31 @@
       <c r="E141" t="n">
         <v>6</v>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>受尊榮的君子,得車的高位者,貪婪破壞的小人,剝廬的惡徒</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>豐碩未食之果,君子尊榮車輿,小人剝除廬舍,成果分離貴賤</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>成熟期,收穫季節,數月後,秋初</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>豐饒果園,高位殿堂,剝奪陋舍,尊貴車乘</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>豐碩果實,華麗車輿,簡陋茅屋,貴賤分離</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4145,11 +6945,31 @@
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>及時悔悟者,智慧回歸之人,謹慎決策者,無悔遠行者</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>短暫分離,迅速回歸,悔恨消散,大吉祥</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>數日內,短暫回歸,近未來,不久吉時</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>不遠之處,回歸之地,熟悉之境,無悔原野</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>短暫離散之物,及時歸來之人,無悔之決定,吉祥之返回</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4171,11 +6991,31 @@
       <c r="E143" t="n">
         <v>2</v>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>謹慎之人,恢復之士,平和復歸者,智慧休養者</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>休養生息,復興之機,吉祥轉折,寧靜歸復</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>數月,春天,復興之季,冬去春來</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>寧靜之所,恢復之地,隱居之境,吉祥家園</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>休息之床,療癒之泉,復甦之光,吉祥之符</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4197,11 +7037,31 @@
       <c r="E144" t="n">
         <v>3</v>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>反覆之人,警惕的行者,循環的旅者,無咎的歸人</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>反覆循環,危險警示,安全返回,多次嘗試</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>數次循環,短暫返回,多次間隔,反复週期</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>舊居之地,迴歸之路,險阻歸途,安全隱處</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>反覆之物,險阻循環,無咎歸來,頻繁復現</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4223,11 +7083,31 @@
       <c r="E145" t="n">
         <v>4</v>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>中正之人,獨行者,回歸本源者,堅定中道者</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>中正之人,獨自返回,復歸之路,吉祥轉機</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>中途返回,數月復歸,冬去春來,循環之時</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>中間之道,獨自歸途,平衡路徑,隱秘歸處</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>中間道路,獨自歸人,隱藏復途,正道行者</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4249,11 +7129,31 @@
       <c r="E146" t="n">
         <v>5</v>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>敦厚之人,誠實之人,謹慎之人,回歸者</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>厚道之人,返回之路,無悔和解,復歸時刻</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>數日,冬去春來,短暫等待,七日周期</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>回歸之地,敦厚之境,無悔之所,安定歸宿</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>溫暖之居,忠誠舊友,恢復之物,無悔回歸</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4275,11 +7175,31 @@
       <c r="E147" t="n">
         <v>6</v>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>迷失的領導者,災禍的國君,失敗的決策者,凶險的統治者</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>迷失返回,凶險災禍,軍事大敗,國君危機</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>數年延遲,災禍之年,一年不克,等待復歸</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>混亂戰場,災禍邊境,失敗軍營,征伐險地</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>迷失之人,軍事災難,失敗領袖,延遲征伐</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4301,11 +7221,31 @@
       <c r="E148" t="n">
         <v>1</v>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>誠實之人,正直之士,純真者,無欲前行者</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>純真行動,順利前進,意外吉祥,無妄之喜</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>即刻之時,成熟之季,無虞之日,行動之刻</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>真誠之境,無欺之地,前進坦途,天雷交匯之所</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>純真之物,誠實之人,吉祥之路,無欺之象</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4327,11 +7267,31 @@
       <c r="E149" t="n">
         <v>2</v>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>靈活之人,決斷者,不執著者,行動派</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>意外收穫,及時行動,輕鬆成功,有利前進</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>數月,耕耘期,收穫季,等待時</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>未開墾之地,荒蕪田野,旅途之途,有利行動之境</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>意外收穫,遺產財富,捷徑機會,行動利處</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4353,11 +7313,31 @@
       <c r="E150" t="n">
         <v>3</v>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>無辜受害者,外來得利者,本地邑人,意外災禍承受者</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>意外災禍,綁縛之牛,過客獲利,邑民損失</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>繫牛之處,行人途徑,邑落災區,意外綁縛地</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>被繫之牛,意外之災,行人之獲,邑人之失</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4379,11 +7359,31 @@
       <c r="E151" t="n">
         <v>4</v>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>謹慎之人,守正者,正直之人,穩健之人</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>守正之人,無災之境,堅守原則,平安結局</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>穩固之地,守正之境,安全堡壘,無虞領域</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>堅守之物, 正道之符, 安全之境, 無害之器</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4405,11 +7405,31 @@
       <c r="E152" t="n">
         <v>5</v>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>謹慎之人,順其自然者,無妄之士,小災自愈者</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>意外疾病,勿干預,自然好轉,喜事降臨</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>數天,短暫,突然轉變,即將痊癒</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>隱藏之處,自然療癒地,等待之境,無干預區</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>突然疾病,無需治療,意外喜悅,自愈之福</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4431,11 +7451,31 @@
       <c r="E153" t="n">
         <v>6</v>
       </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>衝動之人,無謀冒險者,易招禍者,該止步者</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>意外災難,行動失誤,無益結果,突然不幸</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>隱藏之險地,行動受阻處,災禍潛伏之境,無利之地</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>魯莽行動,隱藏災禍,不利之路,警告標誌</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4457,11 +7497,31 @@
       <c r="E154" t="n">
         <v>1</v>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>謹慎之人,知止者,警惕者,保守之人</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>險阻,及時止步,避免災禍,結束行動</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>數日,短暫,結束時,即刻</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>險阻山徑,隱藏暗流,穩定堡壘,停滯谷地</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>危險,險阻,止步,停滯</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4483,11 +7543,31 @@
       <c r="E155" t="n">
         <v>2</v>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>脫節之人,不合群者,勞苦勞碌的人,小人</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>阻礙,意外故障,計劃中斷,旅途停滯</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>短暫延遲,數日停頓,輪轉中斷,即將恢復</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>斷裂之路, 故障之地, 停滯之途, 進展受阻的區域</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>斷裂的車輪,脫落的輻條,故障的車輛,阻礙前進之物</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4509,11 +7589,31 @@
       <c r="E156" t="n">
         <v>3</v>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>追逐者,堅韌之人,謹慎守衛者,積極領袖</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>追逐良機,艱難堅持,閑置準備,有利出行</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>數周,艱難堅持期,追逐之時,準備閑置</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>追逐之途,艱難路徑,護衛之地,前進之境</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>良馬,追逐之物,閒置車輿,衛護之具</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4535,11 +7635,31 @@
       <c r="E157" t="n">
         <v>4</v>
       </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>年輕之人,潛力未展者,受限之才,吉祥之苗</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>年輕之人,輔助工具,成功之途,謙虛態度</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>早期階段,短暫限制,即將到來,數月內</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>牧場,牛圈,養育之所,約束圍欄</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>幼牛,牽繩,束縛之物,順從象徵</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4561,11 +7681,31 @@
       <c r="E158" t="n">
         <v>5</v>
       </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>溫順之人,去除野性者,平和之人,無害之人</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>拔除野豬之牙,化解衝突,平和吉祥,去除銳氣</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>安全之地,柔順之境,馴服之野,吉祥牧場</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>鈍牙,無害利器,閹豬牙齒,柔順堅物</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4587,11 +7727,31 @@
       <c r="E159" t="n">
         <v>6</v>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>順天之道者,開朗領袖,亨通先驅,遠見智者</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>寬廣大道,順利通達,天道助力,障礙消散</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>即時,數日,天時,短期</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>四通八達之路,寬闊天衢,亨通大道,順利通途</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>天衢大道,順天之道,亨通通道,寬廣途徑</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4613,11 +7773,31 @@
       <c r="E160" t="n">
         <v>1</v>
       </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>貪婪之人,短視者,放縱享樂者,無智慧之人</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>捨棄智慧之龜,貪婪大食,短視行為,導致災禍</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>誘惑之地,享樂場所,貪婪陷阱,危險宴席</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>古老占卜物,靈龜殼,咬合堅物,凶險決斷</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4639,11 +7819,31 @@
       <c r="E161" t="n">
         <v>2</v>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>叛逆者,違規冒進之人,倒行逆施者,導致凶險的決策人</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>顛倒之勢,丘上阻礙,強行前進,凶險兆</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>等待之期,丘陵延時,數周凶候,顛倒之刻</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>丘陵高坡,崎嶇險地,顛倒之境,阻礙前路</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>倒置容器,違規食物,丘陵障礙,凶險旅程</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4665,11 +7865,31 @@
       <c r="E162" t="n">
         <v>3</v>
       </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>年長者,頑固之人,違背常道者,凶險之人</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>年長者,逆反行為,凶險局面,無利結果</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>老年,晚年,遲暮時,數十年</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>不潔廚房,危險用餐處,年長禁區,無益環境</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>年長者,凶險之物,無利工具,違逆頤養</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4691,11 +7911,31 @@
       <c r="E163" t="n">
         <v>4</v>
       </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>警惕的獵人,野心勃勃的追求者,貪婪卻無害之人,積極進取的冒險家</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>激烈追求,欲望追逐,吉祥冒險,無咎競爭</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>老虎出沒之林,警惕高地,追獵野原,威嚴殿堂</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>老虎,貪婪追逐者,警覺瞪視,吉祥吞食</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4717,11 +7957,31 @@
       <c r="E164" t="n">
         <v>5</v>
       </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>謹慎之人,守正者,保守領袖,避免冒險者</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>違背常規,守正吉祥,避免大險,隱居謹慎</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>數月,秋季,等待期,靜守時</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>靜止之居,守正之地,險阻邊緣,安穩隱所</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>舊經典,守正居所,洶湧大川,冒險舟楫</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4743,11 +8003,31 @@
       <c r="E165" t="n">
         <v>6</v>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>謹慎之人,養育者,冒險家,渡川智者</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>養育自我,險中求吉,克服難關,渡越大川</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>水流之處,險阻渡口,大川之濱,養育隱谷</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>養育之源,險中吉途,渡河之舟,自我修養</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4769,11 +8049,31 @@
       <c r="E166" t="n">
         <v>1</v>
       </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>謹慎之人,恭敬者,準備充分者,小心翼翼的人</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>白茅襯墊,謹慎準備,平安無虞,恭敬行事</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>潔淨之地,祭祀場所,莊嚴環境,恭敬鋪陳處</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>白茅草,柔軟鋪墊,謙遜保護,無咎之物</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4795,11 +8095,31 @@
       <c r="E167" t="n">
         <v>2</v>
       </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>年長者,枯木再生之人,娶得佳偶之人,堅韌復興者</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>年長者,少女結合,枯木逢春,新生機會</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>春天,數月後,冬去春來,再生之期</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>枯楊河畔, 復甦樹林, 古老園林, 家庭居所</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>枯楊再生,老夫娶妻,年輕伴侶,無不利結合</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4821,11 +8141,31 @@
       <c r="E168" t="n">
         <v>3</v>
       </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>無力支撐之人,領導力薄弱者,結構鬆散的管理者,容易崩潰的長者</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>梁木彎曲,結構崩壞,基礎動搖,凶險災禍</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>彎曲梁柱之屋,結構不穩之建築,朽壞棟樑之處,凶險傾斜之地</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>彎曲梁木,房屋主樑,支撐結構,建築弱點</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4847,11 +8187,31 @@
       <c r="E169" t="n">
         <v>4</v>
       </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>堅實支柱,承擔重任者,壓力下的領袖,穩固建造者</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>堅固梁木,上升吉祥,外部干擾,遺憾阻礙</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>高聳之屋,堅固梁柱,隆起建築,穩固高處</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>梁木,堅固支柱,隆起結構,額外負荷</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4873,11 +8233,31 @@
       <c r="E170" t="n">
         <v>5</v>
       </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>年長者,衰老中重生之人,平凡無譽者,晚年得配偶者</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>枯楊重生,老婦年輕夫,無過無譽,平淡復興</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>晚年,遲來轉機,經過枯萎期,數載後</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>枯楊復生之園,老婦安居之處,平凡無譽之宅,意外重逢之野</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>枯萎再生之樹,遲暮伴侶,平凡無譽之物,無咎中性事物</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4899,11 +8279,31 @@
       <c r="E171" t="n">
         <v>6</v>
       </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>涉險冒進者,危機倖免之人,無罪受難者,終獲解脫者</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>洪水淹沒頭頂,過度冒險渡河,滅頂危機,轉危為安</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>水深之處,滅頂之境,凶險渡口,無咎之岸</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>洪水,深淵,危險渡口,滅頂災難</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4927,27 +8327,27 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>屢犯舊錯之人,負債纏身者,井下礦工,冒險成癖者</t>
+          <t>深陷困境之人,習慣危險者,迷失方向者,陷入泥淵之人</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>暗井,被困之人,重複失足,積水之處</t>
+          <t>持續危險,深淵陷阱,意外墜落,致命錯誤</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>立刻,數天,深夜,冬季</t>
+          <t>延長的黑暗期,持續數月之險,漫長的雨季,遲延的轉機</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>北方, 低洼處, 地下洞穴, 溝渠旁</t>
+          <t>深淵,陷阱,低窪險地,隱藏危險處</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>深井,坑窞,暗渠,陷阱 低窪地,地下室,井口,涵洞 汙水,暗流,淤泥,塌方 繩索,長梯,木桶,井轆轤</t>
+          <t>深坑,險阻陷阱,習慣危險,凶險深淵</t>
         </is>
       </c>
     </row>
@@ -4973,27 +8373,27 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>謹慎之人,小商販,漁夫,斥候</t>
+          <t>謹慎求索者,險中謀利人,小心翼翼者,面對危險的謀略家</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>潭邊狹道,小利入袋,謹慎之人遞來繩索,行程延宕反覆</t>
+          <t>險阻,陷阱,小收穫,謹慎求索</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>數日,數周,冬季,夜半</t>
+          <t>數天,短期險阻,雨後小成,數周內得</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>北方,低洼之地,水流之處,隱蔽之處</t>
+          <t>險阻之地,陷阱所在,水險之處,狹隘通道</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>繩索,水囊,雨具,小錢袋</t>
+          <t>隱藏之險,陷阱,水深處,小小收穫</t>
         </is>
       </c>
     </row>
@@ -5019,27 +8419,27 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>陷於險境之人,冒進不返之人,疲憊而困頓之人,不宜任用之人</t>
+          <t>重重險阻之人,疲憊枕藉者,陷入深淵者,謹慎勿用者</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>重重險阻,深坑,落井,止步</t>
+          <t>重重險阻,陷入深淵,枕險而眠,勿用行動</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>數周,數月,冬季,夜間</t>
+          <t>數周,數月,延遲期,險阻時</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>北方,水流之處,低洼之地,坑穴</t>
+          <t>危險深淵,險阻重重,隱藏陷阱,勿近之境</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>陷阱,深井,洞穴,暗溝</t>
+          <t>深坑,險阻陷阱,隱藏危險,水險之處</t>
         </is>
       </c>
     </row>
@@ -5065,27 +8465,27 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>節儉守禮的家長,樸素誠篤的祭祀者,恪守儀法的小吏,謹慎內向之人</t>
+          <t>謙虛之人,簡樸者,迂迴策略者,機智接近者</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>簡樸宴席,薄禮互贈,私下締約,平安收場</t>
+          <t>低調宴請,簡樸禮物,隱秘通道,平安結局</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>數天,翌日,清晨,上旬</t>
+          <t>沒有</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>窗邊, 室內, 西方, 東北</t>
+          <t>隱藏之處,側面入口,簡樸居所,低調會面地</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>酒樽,簋,陶缶,窗牖</t>
+          <t>酒壺,雙食器,陶罐,窗傳聘禮</t>
         </is>
       </c>
     </row>
@@ -5111,27 +8511,27 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>謙抑的領導者,謹慎之人,風險管理者,安分守成者</t>
+          <t>謹慎之人,平衡管理者,險中求安者,平穩渡難者</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>危機止住不再惡化, 水位持平回落, 坑洼被填平整地, 無災無咎的收場</t>
+          <t>危機化解,平穩恢復,水位穩定,無災無害</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>數周,冬季,夜半,中旬</t>
+          <t>數天,短暫平定,即將結束,無延遲</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>北方, 水流之處, 淺灘渡口, 平整之地</t>
+          <t>半滿水坑,平穩祭壇,險阻淺灘,安全水域</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>水井, 溝渠, 水槽, 河堤</t>
+          <t>未盈之水, 平穩祭壇, 危機化解, 無災之境</t>
         </is>
       </c>
     </row>
@@ -5157,27 +8557,27 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>負債纏身者,被上司牽制的下屬,過度謹慎的管理人,深陷關係糾葛者</t>
+          <t>被束縛之人,棘叢囚徒,三年受困者,凶險陷阱中人</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>拘禁,拖延,三年,荊棘叢</t>
+          <t>束縛之繩,棘叢困境,三年受阻,凶險結局</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>三年,數年,漫長等待,多年無果</t>
+          <t>三年,數年,長期困頓,延遲脫離</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>叢棘密布之處,隱蔽的灌木叢,東南方,荒地邊界</t>
+          <t>荊棘叢、綁縛牢籠、隱秘險地、困頓叢林</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>契約文書,抵押品,失竊貨物,獵物</t>
+          <t>束縛之繩,荊棘叢,困頓牢籠,長期阻礙</t>
         </is>
       </c>
     </row>
@@ -5201,11 +8601,31 @@
       <c r="E178" t="n">
         <v>1</v>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>謹慎之人,恭敬者,穩健行者,避禍者</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>錯亂步伐,恭敬謹慎,化解危機,平安無虞</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>錯亂路徑,危險邊緣,需敬畏之地,虎尾之境</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>繩索,錯綜路徑,需謹慎之物,危險邊緣</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5227,11 +8647,31 @@
       <c r="E179" t="n">
         <v>2</v>
       </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>中正之人,和諧領袖,光明智者,穩健決策者</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>成功事件, 和諧關係, 光明前景, 吉祥結局</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>明亮之處,溫暖居所,中和園林,吉祥燈火</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>黃色之光,中正依附,吉祥明亮,火之溫暖</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5253,11 +8693,31 @@
       <c r="E180" t="n">
         <v>3</v>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>年長者,悲嘆之人,衰落之士,消極老人</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>夕陽西下,老人嘆息,孤獨離散,凶險降臨</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>下午, 日落時分, 遲暮之年, 時間已晚</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>黃昏之地,孤離之境,老人歎息之所,衰落之境</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>年長者,衰退之時,孤獨歎息,凶險預兆</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5279,11 +8739,31 @@
       <c r="E181" t="n">
         <v>4</v>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>衝動之人,破壞者,毀滅使者,被棄之人</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>突發災難,焚燒之禍,死亡之象,被棄之變</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>突然時刻,瞬間,短暫時間,迅速結束</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>焚燒廢墟, 遺棄荒地, 突發災難現場, 死亡幽谷</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>突發災難,焚燒之火,死亡之影,拋棄之物</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5305,11 +8785,31 @@
       <c r="E182" t="n">
         <v>5</v>
       </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>悲傷之人,情感外露者,戚歎之士,吉祥預兆者</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>悲傷之淚,歎息之聲,情感釋放,吉祥轉折</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>淚流之處,悲嗟之地,感傷環境,吉祥轉折之境</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>眼淚如雨,悲傷歎息,情感宣洩,吉祥轉機</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5331,11 +8831,31 @@
       <c r="E183" t="n">
         <v>6</v>
       </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>王者,出征領袖,果斷戰士,正義征服者</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>領導征伐,首級折斷,貴人俘獲,平安成功</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>數月,春季出征,快速勝利,無延遲</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>戰場,邊境,敵營,征伐之地</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>王者出征,斷首勝利,美麗俘獲,無災珍寶</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5357,11 +8877,31 @@
       <c r="E184" t="n">
         <v>1</v>
       </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>年輕者,初學者,基層之人,腳踏實地者</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>初步接觸,小感應,足部事件,輕微吸引</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>數日,起始時刻,初動階段,短暫延遲</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>低矮之處,腳下邊緣,起始角落,隱秘基底</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>腳拇指,微小感應,起始部位,基礎之物</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5383,11 +8923,31 @@
       <c r="E185" t="n">
         <v>2</v>
       </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>衝動之人,行動過度者,靜止者,謹慎之人</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>急躁行動,意外阻礙,靜守原處,轉危為安</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>靜止之時,延遲行動,數日等待,安居階段</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>低窪之地,行動不便之處,安居之所,停滯之境</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>小腿,行動之肢,靜止之處,移動凶險</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5409,11 +8969,31 @@
       <c r="E186" t="n">
         <v>3</v>
       </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>跟隨者,依附之人,行動遲緩者,猶豫不決者</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>阻礙,分離,後悔,行動不便</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>短暫停滯,數日猶豫,緩慢前進,耐心等待</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>崎嶇之路,跟隨之列,阻礙之地,遺憾之途</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>大腿,跟隨者,執握之繩,遺憾之路</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5435,11 +9015,31 @@
       <c r="E187" t="n">
         <v>4</v>
       </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>守正之人,吸引朋侪者,徘徊遊蕩者,吉祥追隨者</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>猶豫徘徊,朋友追隨,守正吉祥,悔恨消散</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>數日往來,朋聚時機,短期聚集,反覆期</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>熙攘人群之處,徘徊往來之地,朋友匯聚之所,動盪過渡環境</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>高階領導人,聚集之眾,志同道合之友,成功的集會</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5461,11 +9061,31 @@
       <c r="E188" t="n">
         <v>5</v>
       </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>真誠之人,深層感應者,無悔忠誠者,內斂交感者</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>深刻感應,無悔親密,深層連接,互動高峰</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>短暫時刻,數日內,即將感應,無延遲</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>堅硬之處,脊梁之地,岩石區,無悔山嶺</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>脊肉,堅硬肌肉,連接部位,無悔之物</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5487,11 +9107,31 @@
       <c r="E189" t="n">
         <v>6</v>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>親密交感者,魅力誘惑人,情感深沉者,溝通親近者</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>口舌是非,言語糾紛,感應失當,不利發展</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>親密交談之處,臉頰相依之地,舌尖感應之境,輔佐言語之室</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>親密接觸,感官刺激,言語交流,臉部親近</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5513,11 +9153,31 @@
       <c r="E190" t="n">
         <v>1</v>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>頑固之人,執著的長者,過度保守者,堅持傳統的管理人</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>凶險陷阱,過度挖掘,堅持災難,無益損失</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>漫長時期,延長等待,持久階段,凶險延期</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>深淵之所,固守險境,無益陷阱,持久危地</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>深井, 永恆枷鎖, 凶險陷阱, 無益追求</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5539,11 +9199,31 @@
       <c r="E191" t="n">
         <v>2</v>
       </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>果敢之人,無悔決斷者,順遂行者,堅定領袖</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>化解,順遂,喜悅,平靜</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>寧靜之境,解脫之地,和諧之所,回歸之處</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>無憾之寶,平安之符,解脫之鑰,永恆之約</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5565,11 +9245,31 @@
       <c r="E192" t="n">
         <v>3</v>
       </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>不堅定之人,易變節者,羞恥承擔者,吝惜堅持者</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>恥辱之影,道德滑落,堅持困境,意外負擔</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>短暫時期,數日內,無常之時,即將轉變</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>不穩定的居所,易生紛爭之地,需恒守之境,隱藏羞辱之處</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>不穩定之物,羞辱之源,短暫德行,貞正遺憾</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5591,11 +9291,31 @@
       <c r="E193" t="n">
         <v>4</v>
       </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>謹慎之人,等待者,無欲之人,隱忍者</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>徒勞無功,空手而歸,無收穫,失望</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>空虛等待,無收獲之時,延遲數月,寂靜季節</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>空蕩田野,荒蕪農地,無生平原,寂靜原野</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>空蕩蕩田野,無鳥之地,狩獵空手,寂靜荒野</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5617,11 +9337,31 @@
       <c r="E194" t="n">
         <v>5</v>
       </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>溫柔婦人,貞淑持恆者,順從內斂之人,剛強夫子</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>婦人吉祥,夫子凶險,堅持德行,柔剛分歧</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>恆久,持久,長時,數月</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>家庭居所,婦女領域,守正之地,恒久環境</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>婦人,貞正,恒德,夫子凶</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5643,11 +9383,31 @@
       <c r="E195" t="n">
         <v>6</v>
       </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>不堅定之人,易變的性格,短暫堅持者,帶來災厄的領導</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>震動崩潰,持久凶險,意外災難,長期損失</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>持久之時,延長之期,數月,長期凶險</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>震動之地,不穩定之處,危險區域,持續動盪處</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>鬆動之繩, 不穩結構, 偽裝恒物, 隱藏凶器</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5669,11 +9429,31 @@
       <c r="E196" t="n">
         <v>1</v>
       </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>退隱者,處險境之人,謹慎停步者,尾隨危機的長者</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>危險尾聲,退隱危機,停步警示,隱匿困境</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>尾聲階段,延遲數周,危險轉折,需等待期</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>危險邊緣,退隱之所,尾端位置,禁忌之地</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>狐狸尾巴,陷阱邊緣,危險退路,靜止之境</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5695,11 +9475,31 @@
       <c r="E197" t="n">
         <v>2</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>堅韌之人,忠誠守信者,牢不可破的盟友,穩固的守護者</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>堅固之束縛,牢不可破之約,持久之聯盟,難以改變之事</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>長期,持久之期,數月之久,堅韌歲月</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>牢靠之處,束縛之地,堅固堡壘,隱秘牢籠</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>黃牛之革,堅韌束縛,牢不可破之物,耐用連接</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5721,11 +9521,31 @@
       <c r="E198" t="n">
         <v>3</v>
       </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>退隱之人,蓄養下屬者,謹慎領袖,隱藏管理者</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>退隱,健康危機,危險警示,忠誠僕從</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>蓄養期,數月,延遲階段,漸進等待</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>隱藏之處,病患居所,僕從聚集地,退隱山林</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>束縛之物,隱退之人,疾病之源,吉祥畜養</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5747,11 +9567,31 @@
       <c r="E199" t="n">
         <v>4</v>
       </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>君子,退隱者,智慧之人,謹慎的領袖</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>謹慎退讓,賢者得利,魯莽失敗,隱居之樂</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>隱藏之處,退避之地,山林深處,孤立高地</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>退隱之人,君子之道,避險之策,小人挫敗</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5773,11 +9613,31 @@
       <c r="E200" t="n">
         <v>5</v>
       </c>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>隱士,謹慎退隱者,守正賢人,智慧長者</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>美好的退隱,守正吉祥,高位避世,智慧隱遯</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>數月, 漸退之期, 適宜季節, 遲暮時分</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>隱藏之處,寧靜山林,退隱居所,安全谷地</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>隱藏之處,退隱之寶,守正之物,吉祥之符</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5799,11 +9659,31 @@
       <c r="E201" t="n">
         <v>6</v>
       </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>智慧退隱者,豐厚守成人,知進退長者,平和謀士</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>豐盛退隱,順利撤退,智慧離開,獲利隱遁</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>豐收之時,成熟期,數月後,秋末</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>肥沃隱居地,豐美山林,退隱谷地,安逸田野</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>豐美的退隱,吉利的隱居,安全的逃遁,無不利之途</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5825,11 +9705,31 @@
       <c r="E202" t="n">
         <v>1</v>
       </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>強健之基者,誠信行者,冒進凶徒,腳踏實地人</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>冒險起步,凶險征途,誠信保障,基礎不穩</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>起始階段,短期凶險,數日等待,有信之時</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>低窪之地,起始路徑,凶險邊界,信任之境</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>強壯之足,遠征之險,誠信之基,冒進之禍</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5851,11 +9751,31 @@
       <c r="E203" t="n">
         <v>2</v>
       </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>正直之人,堅守原則者,謹慎守正者,德行高尚者</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>正確之道,吉祥結果,穩定局面,正面發展</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>堅固之處,吉祥聖地,正直殿堂,安定居所</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5877,11 +9797,31 @@
       <c r="E204" t="n">
         <v>3</v>
       </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>衝動的小人,魯莽的年輕人,被障礙困住的君子,角纏於藩的冒險者</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>衝突,糾纏,困境,損失</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>數日糾纏,短期困境,快速解脫,春季轉折</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>圍欄邊緣,糾纏障礙,卡住之地,邊界困境</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>公羊,觸角之物,籬笆,纏繞之角</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5903,11 +9843,31 @@
       <c r="E205" t="n">
         <v>4</v>
       </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>堅定之人,強壯支柱,克服障礙者,不疲弱的車輪</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>突破障礙,強壯車輪,悔恨消失,守正前進</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>數月,車輪轉動期,經過鞏固,旅途中期</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>開放之境,車行樞紐,決裂藩籬,壯碩支撐</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>堅固輪軸,突破藩篱,壯碩車輿,不衰之行</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5929,11 +9889,31 @@
       <c r="E206" t="n">
         <v>5</v>
       </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>寬容之人,豁達君子,釋懷者,變化從容者</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>羊之喪失,易地遺忘,無悔放棄,止損機會</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>數日,轉變之時,無悔之期,東方春</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>容易之境,羊喪之地,無悔之野,平易牧場</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>羊,牲畜,犧牲品,小利</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5955,11 +9935,31 @@
       <c r="E207" t="n">
         <v>6</v>
       </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>固執之人,進退兩難者,衝動領導,困境求吉者</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>進退兩難,觸碰障礙,堅持艱難,吉祥轉機</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>停滯期,延遲數周,艱難持續,等待化解</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>籬笆邊界,進退維谷之地,障礙圍困之處,困境陷阱</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>衝動之羊,障礙之籬,進退維谷,艱難轉吉</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5981,11 +9981,31 @@
       <c r="E208" t="n">
         <v>1</v>
       </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>改革者,堅持原則之人,寬容獨立者,破舊立新人</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>進展受阻,堅守正道,寬容處理,吉祥無咎</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>數月, 艱難階段, 耐心等待, 轉折期</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>崩塌邊緣,狹窄險途,擁擠集會,寬敞庭院</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>摧毀之橋,寬裕之囊,斷裂之木,謹慎之途</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6007,11 +10027,31 @@
       <c r="E209" t="n">
         <v>2</v>
       </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>謹慎進取者,憂愁貞正者,王母庇佑者,介福受享者</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>晉升伴憂慮,堅持正道吉祥,中等福氣,年長女性庇佑</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>王母居所,宮廷內院,憂愁庭園,吉祥後殿</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>年長女性,貴重禮物,憂慮進階,堅持福佑</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6033,11 +10073,31 @@
       <c r="E210" t="n">
         <v>3</v>
       </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>受人信服之人,領導統御者,眾望所歸者,無悔決策者</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>眾人支持,集體認同,無悔決策,和諧共識</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>數日內,短期共識,順利時刻,無悔之時</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>集會之廳,支持之域,和諧之地,團結之所</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>契約,眾人手印,無悔之果,團結之環</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6059,11 +10119,31 @@
       <c r="E211" t="n">
         <v>4</v>
       </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>小鼠般之人,貪小利者,短視進取者,危險守正者</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>貪小利之人,小鼠般進取,隱藏危險,冒險失利</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>短暫時期,隱藏階段,危險數日,警惕之季</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>隱藏之處,狹窄洞穴,危險角落,小人聚集地</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>小鼠,貪婪之物,短視進取,隱藏危險</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6085,11 +10165,31 @@
       <c r="E212" t="n">
         <v>5</v>
       </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>樂觀之人,無憂者,勇往直前者,積極進取者</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>悔恨消散,得失平衡,吉祥前程,順利無阻</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>即時前進,數日內,無延遲期,春風轉機</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>安全之地,順利之路,機會之境,吉祥之所</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>開啟之鑰,順利之路,無憂之寶,吉祥護符</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6111,11 +10211,31 @@
       <c r="E213" t="n">
         <v>6</v>
       </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>高階領袖,果敢戰士,謹慎進取者,剛毅決策人</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>角之進展,伐邑攻擊,危險吉祥,頑固遺憾</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>邊角之地,隱藏城邑,邊陲要塞,危險邊界</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>犄角,攻城兵器,危險進取,吉祥決斷</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">

--- a/preview.xlsx
+++ b/preview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10257,11 +10257,31 @@
       <c r="E214" t="n">
         <v>1</v>
       </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>謹慎君子,忍耐旅人,低調隱士,逆境前行者</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>低調前行,忍耐艱難,旅行阻礙,言語爭執</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>三日,數天,短暫忍耐,隱藏之期</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>隱藏之處,低窪之地,艱險路途,敵意居所</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>低飛之鳥,忍饑君子,阻礙之言,艱難之旅</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -10283,11 +10303,31 @@
       <c r="E215" t="n">
         <v>2</v>
       </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>高階領袖,受傷君王,得強援者,吉祥拯救者</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>腿部障礙,強壯馬匹,及時救助,吉祥轉機</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>數日,短期救援,馬奔之速,轉機之時</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>崎嶇山路,受阻通道,需馬救助之地,隱傷險途</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>左股傷害,壯馬救助,救援坐騎,吉祥轉折</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -10309,11 +10349,31 @@
       <c r="E216" t="n">
         <v>3</v>
       </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>高階領導,獵人,耐心策略家,南方行動者</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>南方狩獵,重大首級,急躁禁忌,正固堅持</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>南方狩獵期 耐心等待 漸進過程 數月之久</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>南方的野地,狩獵之林,開闊的平原,隱藏的獵場</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>南方狩獵,大首獲取,謹慎守正,隱沒光明</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -10335,11 +10395,31 @@
       <c r="E217" t="n">
         <v>4</v>
       </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>隱藏智慧之人,內斂智者,堅持正道者,脫離困境之人</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>隱藏之處,內在智慧,門庭外出,核心啟發</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>數日,短暫深入,隱藏之時,及時退出</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>隱藏之處,腹內深處,門庭邊緣,轉變之門</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>隱藏之心,內部秘密,核心智慧,門庭之獲</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -10361,11 +10441,31 @@
       <c r="E218" t="n">
         <v>5</v>
       </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>隱藏智慧之人,謹慎避禍者,假裝愚昧的賢者,低調高人</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>隱藏智慧,假癡避禍,年長智者,利於正道</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>黑暗時期,冬季,數月隱忍,等待轉機</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>隱藏之處,昏暗宮廷,危險境地,避禍之境</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>隱藏之光,假癡智者,年長謀士,守正避禍</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -10387,11 +10487,31 @@
       <c r="E219" t="n">
         <v>6</v>
       </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>曾經顯赫如今落魄之人,短暫榮耀後隱晦者,初登高峰後墜落之士,光輝短暫之貴人</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>晦暗時期,短暫榮耀,突然衰落,隱沒退隱</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>數天,數月,短暫初始,漫長後期</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>高處,隱藏之處,地下,黑暗之地</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>短暫光芒,升天墜地之物,初明後暗之象,隱沒之星</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -10413,11 +10533,31 @@
       <c r="E220" t="n">
         <v>1</v>
       </c>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>謹慎之人,守家者,穩定家庭成員,無悔決策者</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>家庭安寧, 閒居生活, 悔恨消散, 平穩事件</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>數日,安定期,家中等待,短期安定</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>家園,圍欄之內,安定之處,庇護所</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>圍欄之物,家庭住所,保護空間,穩定家園</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -10439,11 +10579,31 @@
       <c r="E221" t="n">
         <v>2</v>
       </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>內宅管理者,守家之人,謹慎居家者,家庭守護者</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>內部事務,家務責任,守正之道,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>中饋守正期,內在等待時,數月修養,柔順當下</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>內宅,家庭居所,溫暖之室,守護之處</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>內部儲藏,家庭用品,穩定容器,守護之物</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -10465,11 +10625,31 @@
       <c r="E222" t="n">
         <v>3</v>
       </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>嚴肅家長,紀律管理者,恭敬長者,輕浮子弟</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>嚴肅家庭聚會,悔悟轉吉,婦孺嬉鬧,終生遺憾</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>嚴肅之家,紀律居所,恭敬環境,秩序家園</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>嚴格家規,嬉鬧懲罰,家庭枷鎖,後悔糖果</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -10491,11 +10671,31 @@
       <c r="E223" t="n">
         <v>4</v>
       </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>富有之人,家族領袖,豐裕之人,幸運繼承者</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>富裕之家,財富湧入,家庭繁榮,大吉祥運</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>富裕的家園,繁榮的宅邸,財富聚集之處,吉祥的居所</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>富有的宅邸,財富積累,繁榮家園,大吉之居</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -10517,11 +10717,31 @@
       <c r="E224" t="n">
         <v>5</v>
       </c>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>高階領袖,穩定家主,無憂貴人,吉祥王者</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>高階領導人,家族援助,無憂之境,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>王廟,祖廟,庇護之所,吉祥宮殿</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>王宮,祖廟,安全家園,吉祥庇護</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -10543,11 +10763,31 @@
       <c r="E225" t="n">
         <v>6</v>
       </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>誠信之人,威嚴領袖,莊重守信者,終獲吉祥者</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>誠信盟友,威嚴震懾,吉祥轉折,最終勝利</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>數月 秋季 經過考驗 最終階段</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>莊嚴殿堂,守信聖地,吉祥終點,權威場所</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>權威徽章,誠信誓約,莊嚴儀式,吉祥終符</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -10569,11 +10809,31 @@
       <c r="E226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>耐心之人,智慧長者,不強求者,避禍者</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>失去物品,自動回歸,遇到小人,平安無事</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>數日,自然復歸期,短暫分離,勿逐之時</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>隱藏之處,惡人出沒地,安全復原區,無悔庇護所</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>失而復得之物,自行回歸之馬,惡人,無悔之遇</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -10595,11 +10855,31 @@
       <c r="E227" t="n">
         <v>2</v>
       </c>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>權威領袖,隱藏貴人,巷中恩人,意外盟友</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>意外相遇,重要領導,隱秘巷弄,平安結果</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>巷中相遇時,短暫路徑,意外之刻,數日內</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>隱藏巷弄,狹窄通道,意外相遇處,城市邊緣</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>隱蔽巷道,權威貴人,意外相遇,平安之物</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -10621,11 +10901,31 @@
       <c r="E228" t="n">
         <v>3</v>
       </c>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>受阻礙之人,開始艱難者,受辱之士,最終成功者</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>初始阻礙,拖延掣止,刑罰傷害,最終轉機</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>初期掣肘,後期順遂,延遲數月,轉折之時</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>阻礙的道路,刑罰之地,混亂村落,轉機之所</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>拖曳之車,掣止之牛,受刑之人,困境之象</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -10647,11 +10947,31 @@
       <c r="E229" t="n">
         <v>4</v>
       </c>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>機智之人,遇貴人者,信任建立者,危險避開者</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>孤立狐狸,貴人邂逅,互信交流,危機化解</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>數周,秋季,謹慎期,轉機之時</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>險峻山徑,狐狸隱匿處,貴人聚會地,邊陲交匯點</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>狡猾狐狸,賢人相遇,信任交會,危險無咎</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -10673,11 +10993,31 @@
       <c r="E230" t="n">
         <v>5</v>
       </c>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>高階領導,家族長者,公正決策者,果斷之人</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>紛爭化解,共享柔軟,無悔前進,宗族和睦</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>數日,短暫時期,即將,迅速</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>柔軟之地,無礙路徑,平順平原,易達之境</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>易噬之肉,宗族祭品,柔軟之食,無悔之途</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -10699,11 +11039,31 @@
       <c r="E231" t="n">
         <v>6</v>
       </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>孤獨之人,警惕之人,誤會解開者,姻緣求者</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>孤立誤判,假想威脅,婚姻結合,雨水吉祥</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>數日,雨季,短期過程,化解之時</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>泥濁之地,隱秘車廂,雨降之境,婚配之所</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>豬負泥,鬼載車,張弛弓,遇雨婚</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -10725,11 +11085,31 @@
       <c r="E232" t="n">
         <v>1</v>
       </c>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>謹慎退守者,得譽歸來人,避險求安者,智者知止</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>前進阻礙,回歸譽揚,艱難抉擇,聲譽獲取</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>延遲期,數月,艱難階段,後期轉機</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>阻礙之地,艱難路徑,返回之境,榮譽之所</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>阻礙之路,歸來榮譽,謹慎等待,時機轉折</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10751,11 +11131,31 @@
       <c r="E233" t="n">
         <v>2</v>
       </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>忠誠臣子,無私奉獻者,勤勉公僕,盡責官員</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>忠誠臣子,盡力奉公,無私犧牲,公事艱難</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>宮廷,官府,盡責之殿,忠誠之地</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>忠誠臣子,盡職公僕,無私奉獻者,為公盡忠之人</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10777,11 +11177,31 @@
       <c r="E234" t="n">
         <v>3</v>
       </c>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>謹慎之人,知難而退者,內省反思者,保守回歸者</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>阻礙之路,回歸順利,險阻反轉,退避保全</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>數周阻礙,數日返回,延遲轉折,短暫逆行</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>險阻山徑,返回順途,進難退易之地,障礙重重之境</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>阻礙之路,返回之悔,進退維谷,單向通道</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10803,11 +11223,31 @@
       <c r="E235" t="n">
         <v>4</v>
       </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>謹慎退守者,阻礙前進之人,回歸連通者,智慧顧問</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>阻礙之路,親密連繫,艱難前進,溫暖回歸</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>艱難山徑,阻礙之路,連續平原,親近歸途</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>前進障礙,返回順暢,連續團聚,暫時阻礙</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -10829,11 +11269,31 @@
       <c r="E236" t="n">
         <v>5</v>
       </c>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>忠誠友人,危機援助者,團結夥伴,可靠盟友</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>大阻礙,友人援助,艱難轉機,意外盟友</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>大難之時,朋助來臨,延遲數月,轉機之季</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>險阻山徑,困境深淵,朋友聚會處,援助隱藏地</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>難題,阻礙,盟友,援助</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10855,11 +11315,31 @@
       <c r="E237" t="n">
         <v>6</v>
       </c>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>謹慎之人,年長導師,高階決策者,智慧長者</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>難題,貴人相助,豐盛回報,轉機</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>阻礙期,豐盛來臨,數月後,等待時機</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>艱難之路,豐盛歸處,長者居所,求助之域</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>阻礙之路,豐碩回歸,年長智者,吉祥之門</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10881,11 +11361,31 @@
       <c r="E238" t="n">
         <v>1</v>
       </c>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>正直之人,平安之人,無過失者,謹慎之人</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>平安,無災,化解危機,順利</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>安全之境,平靜之地,無險之所,庇護之處</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10907,11 +11407,31 @@
       <c r="E239" t="n">
         <v>2</v>
       </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>正直獵手,除奸執行者,黃矢持有者,守正領導</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>捕獲狐狸,黃色箭矢,清除障礙,吉祥堅持</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>田野,狩獵場,狐狸隱藏處,黃矢之地</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>狡猾狐狸,黃色箭矢,田野獲物,守正之器</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -10933,11 +11453,31 @@
       <c r="E240" t="n">
         <v>3</v>
       </c>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>負重享樂者,疏忽警惕之人,招致麻煩者,自私貪圖者</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>負重之人,招致盜寇,災難來臨,小憾惜</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>數日內,驟然來臨,短暫危機,轉瞬之間</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>盜寇出沒之地,奢華卻危險之居,負重不慎之途,邊境隱患之境</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>負重之物,僭越之人,盜寇來襲,小憾之象</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -10959,11 +11499,31 @@
       <c r="E241" t="n">
         <v>4</v>
       </c>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>謙遜起步者,真誠盟友,可信夥伴,小步前進人</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>小障礙解除,朋輩到來,信任建立,援助降臨</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>數天,短暫阻礙,朋至之時,即刻信實</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>低處,腳下邊緣,朋友聚會地,解除束縛之所</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>腳拇指,束縛之繩,朋友聚會,信任之手</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -10985,11 +11545,31 @@
       <c r="E242" t="n">
         <v>5</v>
       </c>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>高尚君子,化解賢者,誠信領袖,感化長者</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>解決難題,吉祥結局,誠信影響,年長者領導</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>數周,春季,轉折之時,信任建立期</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>化解之地,水澤交匯,釋放之境,信任之所</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>解決難題的鑰匙,誠信的領袖,吉祥的轉機,感化他人的力量</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -11011,11 +11591,31 @@
       <c r="E243" t="n">
         <v>6</v>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>高位領袖,果斷射手,障礙去除者,成功決策人</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>高處障礙,射擊捕獲,成功去除,公共有利</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>適當時機,數日內,快速決斷,無延遲</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>高處,城牆頂端,暴露邊緣,危險高點</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>高墉,隼鳥,射箭獲取,無不利</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -11037,11 +11637,31 @@
       <c r="E244" t="n">
         <v>1</v>
       </c>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>果斷行動者,節制決策者,迅速執行人,無咎旅者</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>完成事務,迅速行動,無災禍,適度犧牲</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>數日,迅速時期,短期內,即將完成</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>遄往之路,無咎之境,酌損之地,事成之所</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>完成之物,快速送達之包裹,無害禮品,酌減貢獻</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -11063,11 +11683,31 @@
       <c r="E245" t="n">
         <v>2</v>
       </c>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>謹慎之人,守正者,保守之人,穩定之人</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>守正之利, 前進之凶, 勿損益求, 維持現狀</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>隱藏之處,堅固堡壘,靜止山谷,豐饒田野</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>脆弱之物,平衡之器,古老遺物,靜止之境</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -11089,11 +11729,31 @@
       <c r="E246" t="n">
         <v>3</v>
       </c>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>獨行者,選擇友人者,犧牲小我者,智慧交友者</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>三人團體,損失夥伴,獨行旅程,意外盟友</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>三人同行之路,損友之聚會,獨行得友之地,分離之途</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>三人團體,損失夥伴,獨行得友,選擇伴侶</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -11115,11 +11775,31 @@
       <c r="E247" t="n">
         <v>4</v>
       </c>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>慈悲的醫者,迅捷的援助者,喜悅的引導者,無咎的智者</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>疾病減輕,快速喜悅,無災禍,健康恢復</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>數天,迅速,短暫,速喜</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>療養之所,喜悅之地,恢復之境,無害之域</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>療癒之藥,減輕疾苦之物,快速喜訊之源,無咎之助</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -11141,11 +11821,27 @@
       <c r="E248" t="n">
         <v>5</v>
       </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>謙虛求助者,順從朋黨之人,受益聽從者,吉利依賴者</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>盟友援助,神聖增益,順從預兆,幸運轉折</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>龜殼,占卜之物,朋友之禮,吉祥寶貝</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -11167,11 +11863,31 @@
       <c r="E249" t="n">
         <v>6</v>
       </c>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>忠誠臣子,謙遜奉獻者,正直無私之人,得君信任者</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>意外收穫,貴人援手,無牽掛行動,吉祥前進</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>權貴宮殿,遊歷遠方,無家流離地,豐饒益處所</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>增益之寶,無損之器,忠誠臣子,吉祥盟友</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -11193,11 +11909,31 @@
       <c r="E250" t="n">
         <v>1</v>
       </c>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>高階領導者,決策之人,事業先驅,時機把握者</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>大型工程,大吉祥,無過錯,繁榮發展</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>數月內,吉時即至,春天之季,大作之期</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>廣闊平原,開創工地,宏偉殿堂,繁榮都市</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>大型工程,偉大事業,吉祥建設,無咎之作</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -11219,11 +11955,31 @@
       <c r="E251" t="n">
         <v>2</v>
       </c>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>貴人相助者,忠誠盟友,高階領導,守正之人</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>貴人贈禮,珍貴龜殼,無法拒絕之邀,祭天吉祥</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>祭壇,廟宇,帝王殿堂,天帝居所</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>堅硬之物,珍貴禮物,占卜工具,祭祀之器</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -11245,11 +12001,31 @@
       <c r="E252" t="n">
         <v>3</v>
       </c>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>高階管理人,誠信領袖,正直貴人,權威使者</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>危機轉機,誠信求助,高官接見,玉圭禮器</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>數周,經過考驗, 中間階段, 見貴人時</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>宮廷,君王殿堂,儀式場所,權力中心</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>玉圭,權威信物,誠信之器,化解凶具</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -11271,11 +12047,31 @@
       <c r="E253" t="n">
         <v>4</v>
       </c>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>中庸之人,正直的領導者,依附的追隨者,遷徙的決策者</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>中正之道,告知公眾,順從遷移,國家變革</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>遷移之時,過渡期,數月,中道階段</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>中正之道之地,公眾依從之所,遷移依賴之境,新國都安置</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>公正之人,遷移之途,忠誠從者,國家變革</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -11297,11 +12093,31 @@
       <c r="E254" t="n">
         <v>5</v>
       </c>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>誠信之人,仁惠之心者,德澤廣施者,元吉之士</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>誠信之人,仁慈之心,大吉結果,德行惠及</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>親近之境,信任之域,和諧之所,惠心之地</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>仁慈之心,誠信信物,好運符號,德行禮物</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -11323,11 +12139,31 @@
       <c r="E255" t="n">
         <v>6</v>
       </c>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>不堅之人,易變者,孤立之人,凶險之人</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>孤立無援,突如其來攻擊,心志動搖,凶險結局</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>短暫時期,不穩定時間,變化之時,數日之內</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>孤立荒野,暴露戰場,動盪市集,無援堡壘</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>脆弱之物,攻擊目標,動搖之心,凶險境地</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -11349,11 +12185,31 @@
       <c r="E256" t="n">
         <v>1</v>
       </c>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>年輕者,衝動之人,冒進者,初生之子</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>年輕冒進者,微弱腳趾力,前行不勝,警告咎害</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>數天,短期,初期階段,等待期</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>危險路徑,不穩之地,險峻山徑,阻礙前路</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>年輕冒進者,前趾強壯,不勝任之行,禍害之兆</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -11375,11 +12231,31 @@
       <c r="E257" t="n">
         <v>2</v>
       </c>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>警惕之人,警覺守衛,謹慎哨兵,無憂領袖</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>警覺呼號,夜晚無盜,虛驚一場,平安勿憂</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>夜晚,黑暗時期,突發時刻,短暫警覺</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>警戒邊境,夜間險途,潛伏威脅處,勿憂安地</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>警惕呼號,夜晚假警,無憂守夜,警覺哨聲</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11401,11 +12277,31 @@
       <c r="E258" t="n">
         <v>3</v>
       </c>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>年輕氣盛者,剛強衝動之人,果敢獨行君子,遇雨不慍者</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>獨行之人,突來之雨,濕潤之虞,果斷無咎</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>遇雨之時,短暫濡濕,數日內,阻礙即過</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>雨中之路,獨行小徑,風雨野外,濕潤露天處</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>雨降,獨行杖,濕潤衣物,頸部飾品</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11427,11 +12323,31 @@
       <c r="E259" t="n">
         <v>4</v>
       </c>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>行動不便者,猶豫不決之人,依賴後援者,多疑不信者</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>坐立不安,拖沓前進,牽引機會,忽略忠告</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>拖沓前行,數周延遲,猶豫之時,行動後速解</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>崎嶇山路,荒蕪平原,邊陲村莊,艱難渡口</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>疼痛之臀,顛簸之路,羊隻機會,懷疑之心</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -11453,11 +12369,31 @@
       <c r="E260" t="n">
         <v>5</v>
       </c>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>果敢決斷者,居中守正之人,高位領導者,謹慎行道者</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>果斷決斷,小人離去,中庸平衡,無災結局</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>數日,過渡期,決斷時刻,中道階段</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>堅實土地,平坦田野,中道平原,無險途徑</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>果敢決斷者,中正之道,決裂之勢,無咎之行</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -11479,11 +12415,31 @@
       <c r="E261" t="n">
         <v>6</v>
       </c>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>沉默之人,隱忍者,無聲危險,終凶者</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>隱藏危險,表面平靜,突發凶禍,終極災難</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>最終時刻,延遲之凶,時間盡頭,遲來災難</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>隱藏危險之處,沉默陷阱,平靜禍端,潛伏凶險環境</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>隱藏危險,無聲威脅,潛伏災禍,突發凶兆</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11505,11 +12461,31 @@
       <c r="E262" t="n">
         <v>1</v>
       </c>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>謹慎之人,守正者,徘徊不決者,瘦弱信任者</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>金柵束縛,躊躇不前,行動凶險,瘦弱守信</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>數周, 延遲期, 停滯之時, 冬季</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>固定之處,金屬拘束地,徘徊險途,停滯牢籠</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>金屬固定器,車輪鎖,繩索綁定,徘徊之物</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -11531,11 +12507,31 @@
       <c r="E263" t="n">
         <v>2</v>
       </c>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>謹慎保有者,隱藏利益之人,不利分享者,獨享小利者</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>包裹魚類,隱藏珍寶,獨享利益,遠離賓客</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>隱藏之處,封閉容器,魚藏之包,不利外人之域</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>隱藏之物,包裹魚類,私人珍藏,不宜分享物品</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -11557,11 +12553,31 @@
       <c r="E264" t="n">
         <v>3</v>
       </c>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>高位之人,基礎薄弱,步履艱難,謹慎前行</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>行動不便,緩慢前行,危險警示,無大過失</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>數周,拖沓之時,漸進延遲,艱難等待</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>崎嶇山路,泥濘沼澤,狹窄通道,危險邊緣</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>受傷之臀, 拖沓前行者, 脆弱移動物, 危險無依身</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -11583,11 +12599,31 @@
       <c r="E265" t="n">
         <v>4</v>
       </c>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>空虛之人,無實包容者,凶險起步者,失敗包藏者</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>空虛承諾,無獲之行,突然災禍,隱藏缺失</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>空虛容器,無收穫隱處,貧乏包裝地,凶險空網</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>空包,無獲之物,貧乏象徵,災禍之源</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -11609,11 +12645,31 @@
       <c r="E266" t="n">
         <v>5</v>
       </c>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>謹慎保護者,含蓄有才之人,受天佑者,內斂謙和者</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>從天而降的禮物,包裹的瓜果,含藏美質,意外收穫</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>醞釀數周,突然降臨,天降時機,意外之時</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>包覆之處,果園隱地,天降福境,含蓄寶庫</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>包裹之瓜,天降之物,含藏美質,意外禮物</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -11635,11 +12691,31 @@
       <c r="E267" t="n">
         <v>6</v>
       </c>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>孤獨之人,堅持原則者,謹慎遇合者,小有遺憾者</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>意外相遇, 邊緣邂逅, 小有遺憾, 無大過錯</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>邊角處,隱藏角落,偏僻邊緣,不顯眼之地</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>牛角,尖銳之物,頂撞邊緣,阻礙相遇</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -11661,11 +12737,31 @@
       <c r="E268" t="n">
         <v>1</v>
       </c>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>魅力領袖,化解衝突者,樂觀團結者,無憂前進者</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>信任崩潰,混亂匯聚,呼號求助,笑談化解</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>短暫混亂,數日轉變,聚集之時,化解之刻</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>混亂聚集之處,呼號求助之地,笑談化解之境,無咎前進之途</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>不持久之紐帶,混亂之聚會,呼號之聲,無害之笑柄</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -11687,11 +12783,31 @@
       <c r="E269" t="n">
         <v>2</v>
       </c>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>誠信之人,謙虛領袖,可靠引導者,正直顧問</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>領導者,誠信之人,簡單儀式,吉祥事件</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>夏季,數月,漸進過程,簡短延遲</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>通道,聚會之所,祭祀之地,誠信之域</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>誠信信物,簡單祭品,吉祥繩索,無咎路標</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -11713,11 +12829,31 @@
       <c r="E270" t="n">
         <v>3</v>
       </c>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>高位領導者,歎息之人,聚集之主,處境艱難者</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>聚集歎息,無利前進,小憾無咎,謹慎聚眾</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>聚集之地,歎息之所,擁擠場所,謹慎集會</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>聚集人群,歎息遺憾,無利聚會,小憾前進</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -11739,11 +12875,31 @@
       <c r="E271" t="n">
         <v>4</v>
       </c>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>大吉祥,順遂無礙,福運降臨,喜事連連</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>吉祥之地,安全之境,繁榮之域,祥和之所</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>吉祥之物,平安符,順利之路,幸運之門</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -11765,11 +12921,31 @@
       <c r="E272" t="n">
         <v>5</v>
       </c>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>有地位之人,謹慎領導者,堅持正道者,悔恨避免者</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>高位聚集,無災轉機,堅持正道,悔恨消散</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>匯聚時刻,持續堅持期,數月之久,正位之時</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>高位之處,聚集中心,莊嚴殿堂,領導聚會</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>高位寶座,聚集之器,純正權杖,永恆信物</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -11791,11 +12967,31 @@
       <c r="E273" t="n">
         <v>6</v>
       </c>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>悲傷之人,哭泣者,咨嗟之人,悔悟者</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>悲傷之人,流淚咨嗟,情感釋放,平安無虞</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>中央之地,涕洟之所,聚集之境,無咎之域</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>眼淚,鼻涕,悲傷之物,咨嗟之人</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -11817,11 +13013,31 @@
       <c r="E274" t="n">
         <v>1</v>
       </c>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>正直之人,得助領袖,穩升賢者,吉祥上升者</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>順利晉升,大吉祥事,正道上升,事業成功</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>漸進時期,數月內,春天,穩步階段</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>高處,上升之途,吉祥之境,穩固階梯</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>高階位置,穩定的上升,吉祥之路,正面發展</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -11843,11 +13059,31 @@
       <c r="E275" t="n">
         <v>2</v>
       </c>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>誠實之人,簡樸之人,可靠之人,謙遜之人</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>誠信之行,簡樸儀式,無咎之果,利用之時</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>神聖祭壇,簡樸殿堂,誠信聚會處,無虞聖地</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>信物,簡樸祭品,玉圭,穀物</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -11869,11 +13105,31 @@
       <c r="E276" t="n">
         <v>3</v>
       </c>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>虛浮之人,野心勃勃者,缺乏根基的攀升者,不穩定的領袖</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>空虛聚落,虛假上升,不實進展,謹慎冒進</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>遙遠未來, 漸進數月, 虛幻時機, 空虛之期</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>空虛邑落,廢棄村莊,曠野之地,無人居所</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>虛浮之境,空虛城邑,幻影上升,不實之所</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -11895,11 +13151,31 @@
       <c r="E277" t="n">
         <v>4</v>
       </c>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>高階君王,祭祀領袖,吉祥統治者,無咎之主</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>王者祭祀,岐山慶典,亨通吉祥,無咎平安</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>高山,祭祀之地,吉祥聖地,古周遺址</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>高階王者,祭祀儀式,山嶺聖地,吉祥無災</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11921,11 +13197,31 @@
       <c r="E278" t="n">
         <v>5</v>
       </c>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>穩健之人,逐步上升者,謹慎進階者,階梯攀登者</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>逐步晉升,職位提升,穩健前進,吉祥進展</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>逐步上升,數階時日,漸進階段,中等延展</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>高階台階,上升之路,穩固階梯,宮廷入口</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>階梯,上升之路,穩固進展,高位</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11947,11 +13243,31 @@
       <c r="E279" t="n">
         <v>6</v>
       </c>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>堅持之人,堅韌不拔者,黑暗中前進者,不懈追求者</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>黑暗中上升,堅持不懈,逐步提升,成功之途</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>深夜,冬末,數月堅持,漫長黑暗期</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>黑暗之境,隱藏之處,上升通道,幽冥之地</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>黑暗中上升的火炬,隱藏的提升之物,堅持不懈的旅程,貞固的隱秘光芒</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11973,11 +13289,31 @@
       <c r="E280" t="n">
         <v>1</v>
       </c>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>受困之人,孤獨隱居者,行動不便者,長期隔絕者</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>困於株木,幽谷孤立,長期失蹤,困境延續</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>三年,長期隱藏,幽谷歲月,數載不覿</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>幽谷,隱藏之處,株木叢林,孤立之地</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>困頓之臀,株木阻礙,幽谷隱藏,三年孤立</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11999,11 +13335,31 @@
       <c r="E281" t="n">
         <v>2</v>
       </c>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>享樂困頓者,官位來臨者,祭祀主持者,保守避險者</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>困窘於飲食,貴人朱紱到來,祭祀求助,征伐之凶</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>數天,轉機即將,祭祀之期,短暫等待</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>祭祀殿堂,酒食困窘之所,官服貴人聚集處,靜守不征之地</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>酒食陷阱,朱紅官服,祭祀儀式,凶險征途</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -12025,11 +13381,31 @@
       <c r="E282" t="n">
         <v>3</v>
       </c>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>受困之人,孤立囚徒,喪失伴侶者,蒺藜刺傷者</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>阻礙,痛苦,分離,孤獨</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>岩石困地,棘刺依處,空虛宮殿,孤獨居所</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>堅硬之石,棘刺植物,空虛宮室,失落伴侶</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -12051,11 +13427,31 @@
       <c r="E283" t="n">
         <v>4</v>
       </c>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>謹慎緩行者,受華麗束縛者,雖憾猶堅持者,終獲解脫者</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>緩慢前進,華麗困境,輕微遺憾,最終成功</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>緩慢前來,短暫延遲,數周困頓,漸有終局</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>貴重車輛停放處,緩慢通道,金屬束縛之地,有終出口的困局場所</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>金屬車輛,緩慢前來,困頓之途,華麗障礙</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -12077,11 +13473,31 @@
       <c r="E284" t="n">
         <v>5</v>
       </c>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>高階官員,受困貴族,緩解困境者,祭祀參與者</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>刑罰困境,權威束縛,緩慢解脫,祭祀化解</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>緩慢過程,數周後,漸進階段,祭祀延期</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>受刑之所,貴族宮廷,祭祀壇場,緩解隱處</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>刑具,紅色頭巾,緩解之鑰,祭祀之壇</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -12103,11 +13519,31 @@
       <c r="E285" t="n">
         <v>6</v>
       </c>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>困頓之人,猶豫恐懼者,糾纏困境中人,行動求變者</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>糾纏困境,危難驚恐,行動後悔,前進突破</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>數天,短暫困境,等待時機,征途伊始</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>藤蔓纏繞之處,危險陷阱,糾葛叢林,險阻地帶</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>葛藤,糾纏之物,危險境地,行動之悔</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -12129,11 +13565,31 @@
       <c r="E286" t="n">
         <v>1</v>
       </c>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>泥濁之人,無用之井,被棄舊人,孤立無援者</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>泥濁之井,荒廢舊井,無禽棲止,資源枯竭</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>泥濁之井,廢棄舊井,無禽之境,枯竭之地</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>泥濁容器,舊棄水源,無用資源,空蕩井穴</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -12155,11 +13611,31 @@
       <c r="E287" t="n">
         <v>2</v>
       </c>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>浪費資源者,短視之人,無益勞動者,準備不足者</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>小利誘惑,資源浪費,器具破損,勞而無功</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>數月,延遲期,谷底等待,修復之時</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>谷地,破舊井邊,漏水甕旁,無益低窪</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>破漏之甕,谷中淺井,射取小魚,無效容器</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -12181,11 +13657,31 @@
       <c r="E288" t="n">
         <v>3</v>
       </c>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>明智領導者,仁慈統治者,關懷民眾之人,智慧分享者</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>遺棄之井,心生憐憫,賢明領袖,共享福祉</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>數日,即將,轉折之時,短期等待</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>井畔,棄置水源,公共泉井,清澈汲取處</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>未用之井,清澈水源,公共資源,有益之器</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -12207,11 +13703,31 @@
       <c r="E289" t="n">
         <v>4</v>
       </c>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>修復者,勞動之人,穩健之人,奉獻者</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>修井,基礎鞏固,無災修復,穩定供給</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>數周,適時修復,無延遲,短暫努力</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>深井之處,隱藏水源,修築堅固地,社區資源所</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>井,石磚,水源,修繕工具</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -12233,11 +13749,31 @@
       <c r="E290" t="n">
         <v>5</v>
       </c>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>清澈之人,純淨靈魂,冷靜供應者,可靠泉源</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>清澈井水,寒泉滋養,純淨供給,豐沛資源</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>寒冬,數月,清澈之時,短暫滋養</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>清澈之井,寒冷泉源,純淨水域,飲用之地</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>清澈井水,寒冷泉源,可飲寒泉,修復水井</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -12259,11 +13795,31 @@
       <c r="E291" t="n">
         <v>6</v>
       </c>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>誠信之人,開放守護者,滋養提供者,社區賢者</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>資源修復,井口開放,誠信相通,大吉之福</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>數月,收穫之時,開放時刻,元吉期</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>井邊,開放泉源,滋養之地,社區水井</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>水井,開放容器,誠信之源,滋養之物</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -12285,11 +13841,31 @@
       <c r="E292" t="n">
         <v>1</v>
       </c>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>謹慎之人,保守之人,穩固之人,基層管理者</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>黃牛皮革,堅韌連結,持久鞏固,柔韌約定</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>鞏固之初,數月之期,漸進之時,持久之革</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>堅固之地,保護之境,持久之所,黃牛牧場</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>堅韌皮革,黃牛製品,鞏固紐帶,持久材料</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -12311,11 +13887,31 @@
       <c r="E293" t="n">
         <v>2</v>
       </c>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>謹慎之人,時機掌握者,決斷改革者,行動果敢者</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>變革之時,吉祥前進,無咎轉變,巳日行動</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>巳日,數日後,等待時機,特定日子</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>變革之境,轉折門檻,吉祥征途,無咎邊界</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>陳舊之物,特定時日,革除行動,吉祥征途</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -12337,11 +13933,31 @@
       <c r="E294" t="n">
         <v>3</v>
       </c>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>謹慎之人,誠信者,猶豫決策者,多次勸說者</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>危險征途,堅持危局,多次溝通,信任建立</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>三次嘗試,三個階段,短暫延遲,堅持三時</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>凶險前進之地,堅持危境,多次談判之所,誠信試煉之處</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>多次嘗試的合約,誠信的誓言,危險的變革,堅持的考驗</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -12363,11 +13979,31 @@
       <c r="E295" t="n">
         <v>4</v>
       </c>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>誠信之人,改命智者,悔恨消失者,吉祥領袖</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>誠信之人,命運轉折,悔恨消散,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>轉變之境,誠信聖地,悔悟之所,吉祥之域</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>鑰匙,信物,轉機之門,吉祥符</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -12389,11 +14025,31 @@
       <c r="E296" t="n">
         <v>5</v>
       </c>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>高階領袖,強壯變革者,誠信之人,虎般猛士</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>強大轉變,領導蛻變,信任缺失,權威考驗</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>數月,漸進時期,信任延遲,變革後春</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>權力高位,猛獸棲息之野,轉變之境,未定之地</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>年長者,猛虎轉變,權威之人,未獲信孚</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -12415,11 +14071,31 @@
       <c r="E297" t="n">
         <v>6</v>
       </c>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>豹變君子,革面小人,征凶冒險者,居貞守正者</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>豹之轉變,面具偽裝,遠征災厄,安居守正</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>變革之境,動盪野地,居守靜所,征途險途</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>優雅變革者,表面偽裝者,危險征途,穩定居所</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -12441,11 +14117,31 @@
       <c r="E298" t="n">
         <v>1</v>
       </c>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>靈活繼承人,除舊迎新者,逆境獲利者,意外助力得主</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>舊鼎傾覆,清除障礙,得繼承人,家庭和睦</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>數月,轉折期,除舊後,新生之時</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>烹飪之所,傾覆之地,淨化空間,繼承居所</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>倒置容器,去除污垢,意外繼承,無害獲利</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -12467,11 +14163,31 @@
       <c r="E299" t="n">
         <v>2</v>
       </c>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>豐盛之人,受保護者,避險智者,吉祥領袖</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>競爭者疾病,阻隔干擾,安全吉祥,意外優勢</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>數周,短期延遲,敵弱之時,等待病癒</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>安全的庇護所,充滿資源之廚,敵人無法及之地,隔絕威脅之境</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>充滿之鼎,病弱之敵,無法接近之物,吉祥之器</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -12493,11 +14209,31 @@
       <c r="E300" t="n">
         <v>3</v>
       </c>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>受阻之人,僵硬者,經雨淨化者,終獲吉祥者</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>阻塞之路,錯失滋養,雨中遺憾,最終轉機</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>雨降之時,短期阻礙,數日虧悔,終局轉吉</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>阻塞之處,雨淋之地,鼎器廚房,浪費之所</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>受損的器具,阻塞的通道,未食用的膏油,雨中損失</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -12519,11 +14255,3987 @@
       <c r="E301" t="n">
         <v>4</v>
       </c>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>不穩定的領袖,導致翻覆的決策者,形貌汙穢之人,凶險的權力持有者</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>鼎足折斷,食物傾覆,形象汙損,凶兆事件</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>不穩定的廚房,崩壞的祭壇,污穢的容器處,凶險的烹飪地</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>折足之鼎,覆餗之器,渥洼之形,凶兆之物</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>50</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>鼎黃耳金鉉，利貞。</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>5</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>正直之人,堅定養育者,貴重可靠者,中正領導</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>穩定容器,金屬堅固,黃色中正,正確堅持</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>成熟階段,穩定期,數月醞釀,頂峰時刻</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>廚房,祭壇,金屬器物處,穩定烹煮之所</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>黃色耳飾的金屬鼎,珍貴炊具,穩固祭器,吊環容器</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>50</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>鼎玉鉉，大吉，無不利。</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>6</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>高貴之人,正直領袖,純潔賢者,吉祥輔佐</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>玉鉉,珍貴工具,大吉祥,順利成就</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>即將成熟,短暫等待,吉時已至,無延遲</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>尊貴之殿堂,祭祀之所,穩定之廚,吉祥之壇</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>玉製鼎耳,尊貴炊具,吉祥器物,鼎鉤</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>51</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>震來虩虩，後笑言啞啞，吉。</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>驚恐初現之人,後轉笑語者,堅韌復甦者,吉祥樂觀者</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>驚嚇,震動,歡笑,吉祥</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>雷震初始, 數日轉喜, 恐懼短暫, 笑語即臨</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>震動之谷,恐懼林中,雷擊山巔,喜悅平原</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>恐慌顫抖,後笑歡樂,震動轉喜,吉祥結局</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>51</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>震來厲，億喪貝，躋于九陵，勿逐，七日得。</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>震動來臨者,財富喪失者,高處登攀者,耐心等待者</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>突然震動,財物喪失,高山避難,七日恢復</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>七日,數天,短期等待,震動後期</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>高丘,震動之地,危險高地,隱藏陵墓</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>丟失財寶, 高聳山陵, 七日歸來, 勿急追逐</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>51</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>震蘇蘇，震行無眚。</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>3</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>興奮之人,行動領袖,振奮者,無虞行者</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>震動,驚嚇,前行,無災</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>短暫震動期,數日內穩定,快速行動時,無延遲之時</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>震動之地,雷鳴之谷,顫抖路途,動盪無災處</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>振動之馬,興奮步伐,雷鳴之聲,無礙行動</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>51</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>震遂泥。</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>4</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>猶豫不決之人,行動受阻者,恐懼動搖者,泥濘掙扎者</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>陷入泥濘,行動受阻,震動停滯,困境延續</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>泥濘期,短暫震動,數日陷入,緩慢脫出</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>泥濘之地,陷阱,低窪處,沼澤</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>泥濘陷阱,震動滑落,雷擊泥地,意外困境</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>51</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>震往來厲，億無喪，有事。</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>5</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>震動行動者,往來冒險人,危機堅韌者,忙碌有事人</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>突然震動,危險往來,思慮保全,意外事件</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>震動之地,來往頻繁之處,危險路徑,雷擊之區</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>震動之雷,來往危途,無損預期,突發事件</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>51</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>震索索，視矍矍，征凶。震不于其躬，于其鄰，無咎。婚媾有言。</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>6</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>恐懼顫抖之人,驚恐張望者,間接受影響者,婚姻爭執者</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>震動恐懼,目光驚慌,出行凶險,婚姻爭執</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>震動之地,恐懼之境,鄰里區域,爭執之所</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>震動之物,恐懼之源,鄰里糾紛,婚姻契約</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>52</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>艮其趾無咎，利永貞。</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>謹慎之人,止步不前者,守正長者,穩重行者</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>謹慎起步,基礎穩固,無過錯事件,長久堅持</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>起始時刻,數日內,永久持續,初時止步</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>山腳,靜止之地,穩固基處,隱蔽坡地</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>腳趾,止步之處,謹慎之行,持久之守</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>52</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>艮其腓，不拯其隨，其心不快。</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>2</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>猶豫之人,孤立之人,不悅之人,停滯者</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>行動受阻,無法救助他人,內心不安,行走不便</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>數日,短期停滯,延遲等待,數周不順</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>低窪處,山腳阻礙,孤立小徑,沮喪停滯地</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>小腿部位,隨從之物,困擾之心,靜止阻礙</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>52</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>艮其限，列其夤，厲薰心。</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>3</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>僵硬之人,保守管理人,內心焦慮者,受限長者</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>腰部限制,脊骨僵硬,危險警戒,內心焦慮</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>短暫停滯,數日之限,危機煎熬期,等待化解</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>山腰邊界,狹窄通道,危險隱藏處,僵硬峭壁</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>腰際阻礙,脊骨排列,危險氛圍,內心恐慌</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>52</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>艮其身，無咎。</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>4</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>謹慎之人,穩重長者,自我約束者,山岳守望者</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>謹慎之人,靜止之處,自我克制,無災禍</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>數日,短暫停頓,即時靜止,等待期</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>高山之巔,靜止之所,隱居之地,堅固堡壘</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>謹慎之人,靜止之山,自我約束,無害之止</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>52</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>艮其輔，言有序，悔亡。</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>5</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>謹慎之人,有序說話者,節制者,智慧長者</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>有序對話,悔恨消散,謹慎言辭,順利溝通</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>數周,有序階段,漸進時期,穩定期</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>有序之處,靜止之地,言語之室,謹慎環境</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>有序之言,謹慎之口,止息之輔,悔亡之行</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>52</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>敦艮，吉。</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>6</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>敦厚之人,穩重守止者,謹慎長者,山岳隱士</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>厚道堅守,吉祥止步,內省安定,道德回饋</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>高山之巔,靜止之境,堅實高地,隱居之所</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>敦厚之人,堅守之山,高位領袖,止步之境</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>53</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>鴻漸于干，小子厲，有言，無咎。</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>年輕人,高位新人,險境冒進者,聽勸謹慎者</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>年輕冒險者,險阻高枝,言語議論,最終平安</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>漸進期,數月,秋季,短暫險阻</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>高岡,陸地,漸進高處,危險坡道</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>年輕之人,高樹之幹,潛在危險,閒言碎語</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>53</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>鴻漸于磐，飲食衎衎，吉。</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>年長者, 和藹領導, 歡樂賢人, 穩定高位者</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>穩定磐石,歡樂飲食,漸進和樂,吉祥結果</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>漸進時期,數月,穩定期,和樂之時</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>磐石,堅實之地,安居之處,歡樂之境</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>堅固磐石,漸進大雁,歡樂飲食,吉祥聚會</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>53</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>鴻漸于陸，夫征不復，婦孕不育，凶。利禦寇。</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>3</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>孤獨旅人,衰落守衛,無後之人,警惕戰士</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>分離,喪失,失敗,防禦</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>漸進數月,延遲分離,長期無果,等待寇臨</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>陸地,遠方征途,防禦要塞,荒涼之地</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>遷徙之鳥,失蹤旅人,無果孕育,防禦壁壘</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>53</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>鴻漸于木，或得其桷，無咎。</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>4</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>謹慎漸進者,穩健適應人,尋求支撐者,無災安穩人</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>大雁漸進,樹上橫梁,找到支撐,無災平安</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>漸進階段,數月,樹木成熟期,適得其位時</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>樹木,梁木處,高枝,適中停留</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>橫木,樹枝,立足點,支撐物</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>53</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>鴻漸于陵，婦三歲不孕，終莫之勝，吉。</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>5</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>高位領袖,耐心等待者,堅韌不拔者,漸進成功者</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>高陵漸進,婦人延遲,堅持不敗,終獲吉祥</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>數年, 三年等待, 漸進時期, 漫長孕育</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>高丘,陵地,遙遠高地,漸進坡</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>大雁, 高丘, 耐心等待, 最終勝利</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>53</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>鴻漸于陸，其羽可用為儀，吉。</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>6</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>穩健漸進者,優雅典範,羽翼豐滿之人,吉祥領袖</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>逐步前進,穩定適應,羽翼榮耀,吉祥儀式</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>數月,秋季,漸近之時,羽翼豐滿</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>陸地,堅實之處,儀式場所,遷徙終點</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>羽毛,儀式道具,鴻雁之翼,吉祥標誌</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>54</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>歸妹以娣，跛能履，征吉。</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>謙遜輔助者,跛足行者,次要角色,堅持前進者</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>輔助角色,克服障礙,跛足前進,吉利征途</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>次要居所,平坦路徑,易行之地,開闊旅途</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>次要伴侶,殘缺行者,輔助工具,順利征途</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>54</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>眇能視，利幽人之貞。</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>2</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>視力模糊之人,隱居正直者,內省洞察者,低調謹慎者</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>隱藏之人,朦朧視野,堅守正道,幽暗洞察</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>隱藏時期,漸明之時,數月守正,幽居等待</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>隱藏之處,幽暗之地,模糊視野之境,靜謐隱居之所</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>隱藏之物,模糊之鏡,幽居之室,洞察之眼</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>54</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>歸妹以須，反歸以娣。</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>3</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>順從之輔助者,謹慎媒人,角色調整者,年輕配角</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>嫁娶轉折,妾室歸來,等待落空,姐妹之位</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>等待之時,反轉之期,數月延遲,須臾後</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>家庭住所,婚配殿堂,主次分明之處,女性居室</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>等待之信物,側室之環,歸還之門,蓄鬚之器</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>54</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>歸妹愆期，遲歸有時。</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>4</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>謹慎之人,耐心等待者,時機把握者,延遲決策者</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>延遲結合,等待時機,婚姻逾期,遲歸之喜</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>遲延之時, 等待數月, 適當時機, 延後歸期</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>延遲之境,等待之地,遙遠家鄉,時機之所</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>延遲的婚約,遲歸的少女,超過期限的時機,等待的歸來</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>54</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>帝乙歸妹，其君之袂，不如其娣之袂良；月幾望，吉。</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>5</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>外表平凡之人,內在優秀者,被低估的伴侶,接近圓滿的個體</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>次要伴侶,閃耀側室,月圓在即,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>月幾望,即將圓滿,數日內,時機將近</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>華麗宮殿,婚嫁殿堂,月望庭院,貴族居所</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>不完美袖子,華麗衣裳,即將圓滿月亮,吉祥嫁娶</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>54</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>女承筐，無實；士刲羊，無血。無攸利。</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>6</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>虛有其表之人、空洞的領袖、形式主義者、無實質的朋友</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>空洞儀式,無實行動,形式失敗,無益努力</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>春天,初生之難,等待數日,無效階段</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>空虛之所,形式儀式地,無實質場所,表面繁華境</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>空虛容器,無血牲畜,形式儀式,無實之物</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>55</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>遇其配主，雖旬無咎，往有尚。</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>配主,匹配夥伴,榮耀引導者,耐心領袖</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>合適配偶,短暫等待,無災禍,前進榮耀</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>十天,短期等待,旬期無虞,數日後</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>匹配之廳堂, 延時會合處, 榮耀前進境, 無咎相遇所</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>合適夥伴,配偶主人,短期無害,榮耀目標</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>55</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>豐其蔀，日中見斗，往得疑疾；有孚發若，吉。</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>2</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>自負之人,視野狹隘者,猶豫不決之人,誠信可靠者</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>異常天象,中午見星,疑慮疾病,誠信化解</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>不合時宜之時,陰盛陽衰期,短暫疑疾,等待發揚</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>隱藏之處,黑暗之處,遮蔽空間,幽暗房間</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>隱藏之簾,日中之斗,疑疾之影,誠信之發</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>55</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>豐其沛，日中見沫，折其右肱，無咎。</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>3</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>繁榮表象之人, 隱患潛伏者, 臂傷勞碌者, 化解危機者</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>泡沫幻象,右臂斷裂,意外阻礙,最終平安</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>中午,短暫泡沫,豐沛之期,試煉之後</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>水豐沛之河,日中泡沫之岸,右肱折斷之險處,無咎之渡口</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>泡沫,斷臂,豐沛祭祀,無害損傷</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>55</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>豐其蔀，日中見斗；遇其夷主，吉。</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>4</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>遮蔽過多之人,視野狹隘者,遇平易主,謙遜求吉者</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>異常天象,平易貴人,意外吉祥,謙虛受益</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>隱沒時期,低谷階段,數月後,轉機時刻</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>陰暗之處,遮蔽過度之地,異常黑暗的場所,平易主人的居所</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>隱藏之車篷,異常星象,外族領袖,吉祥遇合</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>55</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>來章，有慶譽，吉。</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>5</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>受歡迎之人,名譽領袖,帶來喜訊者,慶賀使者</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>慶賀,聲譽,吉祥,顯達</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>數日,短期內,即將到來,慶賀之時</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>慶賀之殿,榮譽之所,進貢之地,吉祥宮廷</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>慶賀,榮譽,吉祥,邀請</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>55</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>豐其屋，蔀其家，闚其戶，闃其無人，三歲不覿，凶。</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>6</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>隱居孤僻者,外華內虛之人,畏懼暴露者,長期孤立者</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>華麗空屋,隱藏孤家,窺門無人,長期凶厄</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>三年,長久隔絕,數年無人,隱藏之期</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>華麗空屋,隱秘家門,無人靜宅,三年孤寂處</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>空蕩房屋,隱藏之居,無人宅院,封閉門戶</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>56</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>旅瑣瑣，斯其所取災。</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>瑣碎之人,旅途行者,易招禍者,焦慮遊子</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>小麻煩,意外災難,旅途困擾,疏忽之禍</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>數天,短期停留,旅途延遲,瑣事纏繞</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>旅途小徑,瑣碎混亂之地,災禍潛伏之所,遠方客棧</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>瑣碎小物,旅行瑣事,隱藏危險,招致災禍的細節</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>56</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>旅即次，懷其資，得童僕，貞。</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>2</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>謹慎旅行者,資源攜帶者,僕人獲得者,正直寄居者</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>旅途安頓,懷揣資財,獲得助手,堅持正道</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>即時停留,短暫安頓,數日內,旅途轉折</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>旅途停歇處,異鄉居所,帶資財之館,僕從相隨之地</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>懷中資財,忠僕助手,旅途停駐,堅持之器</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>56</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>旅焚其次，喪其童僕，貞厲。</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>3</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>旅行者,喪失庇護者,危機中堅持者,孤立領導者</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>焚燒災難,僕從喪失,旅途險阻,守正警惕</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>焚毀之居,外地旅宿,危險之所,喪失庇護</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>焚燒之居,失落之僕,危險旅程,警戒堅持</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>56</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>旅于處，得其資斧，我心不快。</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>4</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>旅人,資斧得主,內心不快者,漂泊不樂者</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>旅途停留,獲得工具,內心不悅,資源不滿</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>短暫停留,數日內,過渡期,有限時光</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>異鄉,暫住之處,資助停留地,不適居所</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>旅途停留,意外工具,內心不安,臨時資財</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>56</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>射雉，一矢亡，終以譽命。</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>5</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>謙虛射手,初失終譽之人,品格堅韌的追求者,獲讚成功者</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>射野雞,箭矢失誤,意外獲譽,榮耀命令</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>短暫時期,數日,初始失敗後,最終成功時</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>隱藏之處,野外草叢,狩獵場域,高坡射擊地</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>飛翔之鳥,失落之箭,意外讚譽,終獲任命</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>56</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>鳥焚其巢，旅人先笑後號咷，喪牛于易，凶。</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>6</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>魯莽旅人,樂觀後悔者,喪失依賴者,無庇護之人</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>焚燒之巢,旅途轉悲,喪失牲畜,凶險結局</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>短暫時刻,突然轉變,數日內,旅途之中</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>焚燒之巢,旅途險地,喪失易地,凶險之境</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>燒毀的巢穴,失落的牲畜,從喜轉悲的旅程,凶險的財損</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>57</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>進退，利武人之貞。</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>武人,堅定勇者,正直守衛,進退維谷者</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>進退兩難,武人決斷,堅持正道,利於堅守</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>險阻之地,戰場邊陲,守備堡壘,決斷山徑</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>進退困境,武人戰士,堅貞堅持,果敢決策</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>57</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>巽在床下，用史巫紛若，吉，無咎。</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>2</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>低位順從者,傳統求助者,靈性信徒,謙遜智者</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>隱藏困境,靈性輔助,混亂化解,吉祥結局</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>隱藏之處,床下空間,低矮環境,順從之地</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>隱藏之處下的物品,祭祀祈禱之具,巫師器物,卑微順從之象</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>57</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>頻巽，吝。</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>3</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>順從之人,過度謙讓者,缺乏主見者,卑躬屈膝者</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>過度順從,頻繁屈服,小有遺憾,輕微困窘</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>低窪順地,風過之處,隱順角落,柔從環境</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>頻繁之風,順從之物,小有悔恨,柔順動作</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>57</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>悔亡，田獲三品。</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>4</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>成功的獵人,豐收之人,無悔追求者,多樣獲利者</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>豐收之田,獲取三寶,無悔之旅,意外之喜</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>數月,收穫季,耕種後,秋分時</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>廣闊田野,豐收農田,狩獵之地,自然收獲區</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>田野獵物,三種收穫,豐饒獲品,無悔之寶</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>57</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>貞吉，悔亡，無不利。無初有終，先庚三日，後庚三日，吉。</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>5</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>謹慎決策者,耐心等待者,時機把握者,最終勝利者</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>預先三天,圓滿結局,無悔之行,時機把握</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>數天延遲,特定時機,無初有終,庚日前後</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>養育之室,靜養之處,時機交接地,結局吉祥境</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>轉變之物,時機選擇,無悔結束,庚日週期</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>57</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>巽在床下，喪其資斧，貞凶。</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>6</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>隱藏之人,卑微勞作者,喪失資源者,守正凶者</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>隱藏之處,喪失資源,低位順從,隱患導致凶</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>數周,隱藏之期,低谷階段,喪失後</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>隱藏之處,床下空間,低矮陰暗,喪失之谷</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>隱藏之處,喪失工具,卑微財產,凶險斧頭</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>58</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>和兌，吉。</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>1</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>和順之人,喜悅之人,親和之人,樂觀之人</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>和諧交流,喜悅相遇,吉祥和解,愉快結果</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>沼澤之地,喜悅聚會處,交流市場,澤畔之所</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>和諧之物,喜悅之象,交流之橋,吉祥符號</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>58</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>孚兌，吉，悔亡。</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>2</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>誠信之人,喜悅領袖,正直管理者,化解悔恨者</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>信任建立,喜悅相聚,吉祥結局,悔恨消散</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>數日,短暫等待,悔亡時刻,吉祥即臨</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>水澤之邊,喜悅聚會處,誠信交易地,和諧休憩所</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>誠信之人,喜悅時刻,吉祥交易,悔恨消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>58</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>來兌，凶。</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>3</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>虛偽之人,誘惑陷阱的製造者,口蜜腹劍者,危險交易的引誘者</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>誘惑,虛假喜悅,災禍來臨,口舌紛爭</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>沼澤地,濕潤陷阱,誘人低窪,凶險水澤</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>甜蜜陷阱,虛假喜悅,口舌是非,沼澤險地</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>58</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>商兌未寧，介疾有喜。</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>4</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>談判者,病中智者,喜事降臨者,謹慎交談人</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>不穩定交易,中途疾病,意外喜慶,轉機之喜</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>中間階段,延遲後轉好,數周等待,短期阻礙</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>喧鬧集市,談判廳堂,臨時病榻,喜訊傳遞處</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>交易障礙,臨時疾病,意外喜慶,最終安定</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>58</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>孚于剝，有厲。</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>5</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>忠誠的衰落者,險境中的守信人,剝落時的誠實者,危險忠臣</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>信任危機,衰敗禍端,隱藏危險,崩潰之時</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>數月,衰退期,冬季末,漸進剝落</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>衰敗之地,危險邊緣,剝落山坡,隱藏危機處</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>剝落之果,腐朽之木,斷裂之繩,隱藏之險</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>58</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>引兌。</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>6</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>外交之人,說服者,喜悅引導者,口才佳者</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>喜悅,吸引,談話,澤中</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>秋季,數月,漸進期,吸引時刻</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>沼澤之地,湖泊邊,喜悅之所,交流場所</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>引導之澤,喜悅之繩,口舌之流,沼澤之牽</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>59</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>用拯馬壯，吉。</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>強壯之人,有力救助者,吉祥領袖,壯健英雄</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>強壯馬匹,救援行動,壯碩助手,吉祥救助</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>數日內, 馬奔馳之速, 及時之機, 短暫等待</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>困境之地,馬匹奔馳之野,救援高地,吉祥平原</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>強壯之馬,救援坐騎,吉祥助力,可靠工具</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>59</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>渙奔其机，悔亡。</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>2</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>機敏之人,果斷決策者,奔向樞紐者,悔恨消逝者</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>快速奔跑,及時決斷,織機轉動,悔恨消散</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>數天,迅速,短暫,風散之時</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>機關之處,隱藏樞紐,安全織坊,奔逃通道</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>隱藏機關,關鍵樞紐,奔逃之路,化解悔恨之物</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>59</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>渙其躬，無悔。</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>3</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>謙虛之人,自我犧牲者,無悔決斷者,內省之士</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>散開,釋放,無悔,個人放鬆</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>渙散之地,風水交匯處,避險環境,無悔之境</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>散開之物,解脫的束縛,無悔的釋放,渙散的身軀</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>59</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>渙其群，元吉。渙有丘，匪夷所思。</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>4</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>高階領導人,獨立智者,危機化解者,超凡脫俗者</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>群眾散開,大吉利,丘陵隱現,意想不到</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>數周,漸散之期,丘陵形成,意外之刻</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>丘陵地,散開群聚處,意外高地,風散之境</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>散開之群,丘陵地形,意外發現,不平凡之物</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>59</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>渙汗其大號，渙王居，無咎。</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>5</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>高位領袖,大聲呼號者,汗流危機中人,化解無咎者</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>危機呼號,散亂化解,王居動盪,無咎結局</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>王居,渙散宮殿,汗流危機之地,呼救之所</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>鮮血,遙遠逃脫,安全居所,化解危機</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>59</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>渙其血去逖出，無咎。</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>6</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>化解危機之人,遠離危險者,智慧避險者,無咎決策者</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>傷害分離,危險遠離,危機化解,平安無虞</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>散開之時,遠離之後,無咎之期,數日化解</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>遠離危險之處,散開血氣之地,療癒隱匿之境,無咎遠方</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>散開之血,遠離災難,化解危機,無害之途</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>60</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>不出戶庭，無咎。</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>謹慎之人,守成者,宅心者,內斂之人</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>居家守靜, 避免外出, 隱居之處, 平安無虞</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>當下時刻, 短期守候, 家居靜止, 無需延遲</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>家宅,庭院,隱居之處,安全居所</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>家宅,門庭,守靜之境,隱居之所</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>60</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>不出門庭，凶。</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>2</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>隱居之人,保守之人,孤立之人,畏縮者</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>停滯,孤立,危機,損失</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>數日,當下,短期停滯,隱居之期</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>門庭內部,家宅封閉,隱居庭院,不出外處</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>門庭 庭院 家居 封閉空間</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>60</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>不節若，則嗟若，無咎。</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>3</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>不節之人,嗟嘆者,悔悟者,無咎的冒險者</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>過度行為,後悔歎息,無最終禍害,自我恢復</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>繁華之地,誘惑之境,嘆息之所,安穩之域</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>錢財,飲食,慾望,行為</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>60</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>安節，亨。</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>4</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>謹慎之人,節制者,平和之士,安穩管理人</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>安定之境,節制之道,順利亨通,平和進展</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>安定之庭,節制之園,亨通之谷,平衡之所</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>安穩容器,節制之器,順利通道,平衡之物</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>60</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>甘節，吉，往有尚。</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>5</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>溫和節制者,受尊重之人,得體貴人,榮耀追求者</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>節制成功,榮耀前進,吉祥收穫,甜美約束</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>甜美之園,節制之境,榮耀之地,吉祥之所</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>甜美果實,節制禮物,受尊重之物,吉祥紀念</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>60</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>苦節，貞凶，悔亡。</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>6</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>嚴苛節制者,堅持正道之人,凶險無悔者,苦行守正者</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>過度克制,短期凶險,堅持正道,悔恨消散</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>數月之苦,漫長節制,轉機將近,悔恨消逝</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>嚴格之境 受限之所 苦澀之地 隱忍之處</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>嚴苛規範,苦澀約束,凶險堅持,悔恨消逝</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>61</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>虞吉，有它不燕。</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>1</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>謹慎之人,憂慮者,警惕之士,不安寧者</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>憂慮之事,吉祥轉機,外部干擾,不安寧狀態</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>隱藏之處,危險邊緣,不安定區域,潛伏之地</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>憂慮之鎖,吉祥守護,不安定之鳥,隱藏警兆</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>61</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>鳴鶴在陰，其子和之；我有好爵，吾與爾靡之。</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>2</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>隱藏賢者,吸引同道者,分享君子,高潔引領人</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>鳴鶴在陰,子嗣和應,好爵共享,忠誠聯繫</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>隱藏之時,鶴鳴之季,吸引之刻,共享之期</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>陰影隱藏處,鶴鳴水邊,幽靜沼澤,共享高位之地</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>隱藏之鶴,共享之爵,和諧之聲,珍貴之器</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>61</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>得敵，或鼓或罷，或泣或歌。</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>3</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>善變之人,喜怒無常者,猶豫不決者,情緒多變者</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>敵人遭遇,情緒波動,進退猶豫,喜悲交加</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>突然相遇,短暫衝突,情緒波動期,變幻莫測時</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>衝突之地,變幻環境,敵對領域,情緒波動之境</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>敵對者,戰鼓,淚水,歌聲</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>61</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>月幾望，馬匹亡，無咎。</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>4</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>謹慎之人,樂觀的旅者,接受損失者,接近圓滿者</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>接近圓滿階段,馬匹遺失事件,無大災禍,小小損失</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>接近滿月, 月末過渡, 短暫喪失期, 無咎之時</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>月光充足之處,馬匹遺失之地,圓滿將近之境,安全無虞之域</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>馬匹,滿月將近,丟失之物,圓滿無害</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>61</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>有孚攣如，無咎。</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>5</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>誠信之人,受約束者,謹慎之人,無災禍者</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>誠信守諾,堅定團結,無災平安,集會成功</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>受拘束之地,誠信聚集之境,無害牢籠,捆綁安全之所</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>繩索,彎曲之物,堅韌連接,誠信象徵</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>61</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>翰音登于天，貞凶。</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>6</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>聲名遠播之人,高位管理者,謹慎才華者,風險傳播者</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>高處聲響,天際傳播,隱藏凶險,過度高揚</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>高處,天空,傳音之境,凶險高位</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>高飛之鳥,天際之鳴,過度堅持,登高之凶</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>62</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>飛鳥以凶。</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>魯莽的冒險者,帶來凶兆的信使,過度自由之人,不穩定的飛翔者</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>壞消息,空中災禍,飛鳥凶兆,意外分離</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>短暫時刻,飛逝時光,數日之內,突然降臨</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>高處,空中,危險境地,意外之地</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>飛鳥,空中威脅,凶險之兆,高飛之災</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>62</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>過其祖，遇其妣，不及其君，遇其臣，無咎。</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>2</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>溫柔長輩,忠誠臣子,謹慎決策者,家庭守護者</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>家族長輩,女性親屬,避開權威,遇見同儕</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>祖先居所,中層官署,家庭聚會處,非正式場合</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>年長女性,臣屬之人,家庭遺產,無害相遇</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>62</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>弗過防之，從或戕之，凶。</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>3</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>盲從者,疏忽防備者,潛伏背叛者,易陷凶險者</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>背叛跟隨者,意外傷害,防備疏忽,凶險陷阱</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>隱藏之處,邊界之地,防禦堡壘,陷阱所在</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>防禦壁壘,潛伏陷阱,致命誘餌,凶險跟隨</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>62</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>無咎，弗過遇之，往厲必戒，勿用，永貞。</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>4</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>謹慎之人,守正者,警惕之人,永貞之士</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>警惕危機,守正之道,避免過度,無災禍</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>數月,延遲期,等待時,警惕之時</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>危險邊緣,警惕之地,隱藏陷阱,守正之境</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>危險之遇,需警惕之物,守正之道,勿用之機</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>62</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>密雲不雨，自我西郊；公弋取彼在穴。</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>5</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>蓄勢待發之人,潛伏獵手,期待機會者,隱藏實力者</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>厚雲無雨,邊陲蓄勢,弓弋獵穴,捕捉隱藏</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>數日,黃昏時,西風季節,短暫等待</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>西郊,邊緣地帶,洞穴,隱藏之處</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>穴中之物,隱藏獵物,西郊之雲,未降之雨</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>62</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>弗遇過之，飛鳥離之，凶，是謂災眚。</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>6</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>疏忽之人,錯失機會者,遠離飛鳥,災禍引致者</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>飛鳥遠離,災禍降臨,失機錯過,凶兆出現</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>短暫過渡,突然分離,數日內,災禍降臨</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>高空,離散之境,災厄之地,空蕩野徑</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>飛鳥,離散之象,災禍徵兆,過度之途</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>63</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>初九</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>曳其輪，濡其尾，無咎。</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>1</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>謹慎之人,適度享樂者,經驗老練者,避免災禍者</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>拖拽車輪,濕潤狐尾,無災禍,小心涉險</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>緩慢拖曳,數周經過,涉水延時,短期無虞</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>泥濘之路, 水邊低地, 潮濕陷阱, 緩行險途</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>狐狸,車輪,濕潤尾巴,渡河之途</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>63</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>六二</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>婦喪其茀，勿逐，七日得。</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>2</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>謹慎婦人,耐心等待者,順從之人,不強求者</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>小物丟失,勿急追尋,七日後得,意外歸來</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>七日, 短期等待, 數天後, 丟失後期</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>隱藏之處,遠離視線之地,自然恢復之所,七日顯現之境</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>精緻首飾,女性簪子,短暫失落之物,七日歸還之寶</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>63</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>九三</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>高宗伐鬼方，三年克之，小人勿用。</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>3</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>堅韌統帥,耐心領袖,賢明君王,警惕小人者</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>持久征伐,最終克勝,數年努力,避免小人</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>數年,三年克之,持久征戰,長期努力</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>遙遠邊疆,敵對隱地,三年征伐處,鬼魅戰域</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>持久戰爭,北方敵人,賢明領袖,忠誠顧問</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>63</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>六四</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>繻有衣袽，終日戒。</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>4</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>謹慎之人,警惕者,儉樸之人,警覺者</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>謹慎之人,警戒狀態,簡樸服裝,潛在危險</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>數日、一整天、每日、短期持續</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>隱藏之處,戒備嚴密之地,艱難環境,保護包裹空間</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>華麗絲袍,粗麻喪衣,警惕護具,戒備符物</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>63</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>九五</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>東鄰殺牛，不如西鄰之禴祭，實受其福。</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>5</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>謙虛之人,質樸祭祀者,內斂受益者,簡單福氣擁有者</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>奢華儀式,簡樸祭祀,真誠福佑,鄰里得失</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>東鄰奢華祭壇,西鄰質樸居所,鄰里隱秘福地,簡單真誠之境</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>簡樸祭品,真誠福佑,東西方鄰,樸實選擇</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>63</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>上六</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>濡其首，厲。</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>6</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>冒進者,魯莽之人,涉險者,暴露於危險者</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>頭部浸濕,潛在危險,雨中涉險,警示之象</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>雨降之時,短暫浸濕期,危險起始,數日內</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>水流之處,浸濕之境,危險渡口,險惡環境</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>雨降,濕潤之首,頭部浸水,危險之濕</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>64</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>初六</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>濡其尾，吝。</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>1</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>謹慎之人,涉險者,猶豫者,遺憾之人</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>濕尾猶豫,渡河失敗,輕微損失,悔吝之憾</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>短暫延遲, 初始階段, 數日, 水濕之時</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>水流之處,渡河險阻,濕潤低地,尾隨危地</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>濕潤尾巴,涉水之險,拖沓遺憾,狐尾之吝</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>64</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>九二</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>曳其輪，貞吉。</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>2</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>謹慎之人,穩健前進者,經驗老道者,耐心拖輪者</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>謹慎之人,緩慢前進,車輪拉扯,守正吉祥</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>數周,漸進時期,延緩階段,緩慢過程</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>平坦道路,緩行之道,車輪滾動處,謹慎前進之地</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>輪子,拖拽之物,移動工具,堅硬圓物</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>64</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>六三</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>未濟，征凶，利涉大川。</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>3</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>冒險者,勇於渡險之人,未完成事業者,挑戰困難者</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>未完成之業,凶險征途,大川渡涉,火水未濟</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>水流之處,廣闊大川,險峻渡口,未渡之河</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>大河,凶險征途,渡船,未完任務</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>64</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>九四</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>貞吉，悔亡，震用伐鬼方，三年有賞于大國。</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>4</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>勇敢行動者,堅定正直之人,耐心戰士,受大國嘉獎者</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>衝突討伐,三年堅持,吉祥無悔,大國榮賞</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>三年,數年,長期,時光考驗</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>遠方邊境,蠻夷之地,戰爭區域,榮耀宮殿</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>正義之劍,持久戰爭,三年等待,大國榮耀</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>64</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>六五</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>貞吉，無悔，君子之光，有孚，吉。</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>5</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>正直之人,誠信君子,無悔領袖,光榮長者</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>君子之光,誠信守諾,正道吉祥,無悔榮耀</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>光明之殿,君子居所,誠信聖地,吉祥高堂</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>正直君子,光輝信物,無悔護符,吉祥之光</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>64</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>上九</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>有孚于飲酒，無咎；濡其首，有孚失是。</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>6</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>誠信之人,節制飲者,易過度者,需警惕者</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>酒宴,誠信守節,過度放縱,失卻正道</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>沒有</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>飲酒之所,歡樂聚會處,濕潤宴席間,社交信賴場</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>飲酒之器,濕潤頭髮,社交聚會,過度失態</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
